--- a/example_data/fclassed/croniken.xlsx
+++ b/example_data/fclassed/croniken.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlg/Documents/Repos/_whg3/example_data/fclassed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{558CA2A5-7CE6-914B-8021-5984C6F4645B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49B7DD7-3AFD-ED4B-A7BA-9A4B29BA6954}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="1180" windowWidth="27640" windowHeight="16920" xr2:uid="{75BE01BD-D9F1-D14D-ACB6-A6A163D01792}"/>
+    <workbookView xWindow="1340" yWindow="1180" windowWidth="27640" windowHeight="16920" activeTab="2" xr2:uid="{75BE01BD-D9F1-D14D-ACB6-A6A163D01792}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3205" uniqueCount="1432">
   <si>
     <t>id</t>
   </si>
@@ -2770,6 +2772,1557 @@
   </si>
   <si>
     <t>P;S;A</t>
+  </si>
+  <si>
+    <t>geo_id</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>Suvarnabhumi</t>
+  </si>
+  <si>
+    <t>Broek</t>
+  </si>
+  <si>
+    <t>Karpuradvipa</t>
+  </si>
+  <si>
+    <t>Poli</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>Brunei Bay</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>Puradvipa</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Tandjungnegara</t>
+  </si>
+  <si>
+    <t>Tanjungpura</t>
+  </si>
+  <si>
+    <t>Kapuas</t>
+  </si>
+  <si>
+    <t>Katingan</t>
+  </si>
+  <si>
+    <t>Sampit</t>
+  </si>
+  <si>
+    <t>http://sws.geonames.org/1628884</t>
+  </si>
+  <si>
+    <t>Kuta Lingga</t>
+  </si>
+  <si>
+    <t>Kuta Waringin</t>
+  </si>
+  <si>
+    <t>Sambas</t>
+  </si>
+  <si>
+    <t>http://sws.geonames.org/1628979</t>
+  </si>
+  <si>
+    <t>Wawai</t>
+  </si>
+  <si>
+    <t>Lawai</t>
+  </si>
+  <si>
+    <t>Kadangdangan</t>
+  </si>
+  <si>
+    <t>Landa</t>
+  </si>
+  <si>
+    <t>http://sws.geonames.org/7568598</t>
+  </si>
+  <si>
+    <t>Samedang</t>
+  </si>
+  <si>
+    <t>Tirem</t>
+  </si>
+  <si>
+    <t>Sedu</t>
+  </si>
+  <si>
+    <t>Burune</t>
+  </si>
+  <si>
+    <t>Kalka</t>
+  </si>
+  <si>
+    <t>Saludung</t>
+  </si>
+  <si>
+    <t>Solot</t>
+  </si>
+  <si>
+    <t>Pasir</t>
+  </si>
+  <si>
+    <t>http://sws.geonames.org/8750909</t>
+  </si>
+  <si>
+    <t>Baritu</t>
+  </si>
+  <si>
+    <t>Sawaku</t>
+  </si>
+  <si>
+    <t>Tabalung</t>
+  </si>
+  <si>
+    <t>Tunjung Kute</t>
+  </si>
+  <si>
+    <t>Malano</t>
+  </si>
+  <si>
+    <t>Tandjungpuri</t>
+  </si>
+  <si>
+    <t>Sulu islands</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Tidung</t>
+  </si>
+  <si>
+    <t>Tiroon</t>
+  </si>
+  <si>
+    <t>Maloedo</t>
+  </si>
+  <si>
+    <t>Serudong</t>
+  </si>
+  <si>
+    <t>Sebatik Island</t>
+  </si>
+  <si>
+    <t>ID;MY</t>
+  </si>
+  <si>
+    <t>Matan</t>
+  </si>
+  <si>
+    <t>Sadong</t>
+  </si>
+  <si>
+    <t>Sedua</t>
+  </si>
+  <si>
+    <t>Sarawak</t>
+  </si>
+  <si>
+    <t>http://sws.geonames.org/1733038</t>
+  </si>
+  <si>
+    <t>Langgouw</t>
+  </si>
+  <si>
+    <t>Siduk</t>
+  </si>
+  <si>
+    <t>Borneo</t>
+  </si>
+  <si>
+    <t>Peniraman</t>
+  </si>
+  <si>
+    <t>Rio Succadano</t>
+  </si>
+  <si>
+    <t>A gramde isla de Maquacer</t>
+  </si>
+  <si>
+    <t>Burney</t>
+  </si>
+  <si>
+    <t>Borney</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>http://sws.geonames.org/1820814</t>
+  </si>
+  <si>
+    <t>Tanjung</t>
+  </si>
+  <si>
+    <t>http://sws.geonames.org/7036666</t>
+  </si>
+  <si>
+    <t>Balambangan</t>
+  </si>
+  <si>
+    <t>Moluccas</t>
+  </si>
+  <si>
+    <t>http://sws.geonames.org/1636627</t>
+  </si>
+  <si>
+    <t>C tanhumbagubaa</t>
+  </si>
+  <si>
+    <t>Lloucam</t>
+  </si>
+  <si>
+    <t>Lloutam</t>
+  </si>
+  <si>
+    <t>Lochac</t>
+  </si>
+  <si>
+    <t>Lo Kuok</t>
+  </si>
+  <si>
+    <t>Laue</t>
+  </si>
+  <si>
+    <t>Pamgun</t>
+  </si>
+  <si>
+    <t>Pamgan</t>
+  </si>
+  <si>
+    <t>Pulu Laut</t>
+  </si>
+  <si>
+    <t>Pamuca</t>
+  </si>
+  <si>
+    <t>Tanhumpura</t>
+  </si>
+  <si>
+    <t>Tamnjompura</t>
+  </si>
+  <si>
+    <t>Quedomdoan</t>
+  </si>
+  <si>
+    <t>Samper</t>
+  </si>
+  <si>
+    <t>Cate</t>
+  </si>
+  <si>
+    <t>Kendavangan</t>
+  </si>
+  <si>
+    <t>Kutei</t>
+  </si>
+  <si>
+    <t>Pamukan</t>
+  </si>
+  <si>
+    <t>Tanjompura</t>
+  </si>
+  <si>
+    <t>Maquater</t>
+  </si>
+  <si>
+    <t>Java Minor</t>
+  </si>
+  <si>
+    <t>San Pedro</t>
+  </si>
+  <si>
+    <t>Chinabalo</t>
+  </si>
+  <si>
+    <t>Mt. S. Paulo</t>
+  </si>
+  <si>
+    <t>S. Pedro</t>
+  </si>
+  <si>
+    <t>Chinabolo</t>
+  </si>
+  <si>
+    <t>Kinabalu</t>
+  </si>
+  <si>
+    <t>http://sws.geonames.org/1733432</t>
+  </si>
+  <si>
+    <t>Monte de Adas</t>
+  </si>
+  <si>
+    <t>Porto de borneo</t>
+  </si>
+  <si>
+    <t>Chinabatanga</t>
+  </si>
+  <si>
+    <t>Kinabatangan</t>
+  </si>
+  <si>
+    <t>Chinabalu</t>
+  </si>
+  <si>
+    <t>Pertam</t>
+  </si>
+  <si>
+    <t>Pertan</t>
+  </si>
+  <si>
+    <t>Tanara</t>
+  </si>
+  <si>
+    <t>Lanaca</t>
+  </si>
+  <si>
+    <t>Lanara</t>
+  </si>
+  <si>
+    <t>Tanaram</t>
+  </si>
+  <si>
+    <t>Tabaran</t>
+  </si>
+  <si>
+    <t>Bisaia</t>
+  </si>
+  <si>
+    <t>Bacaia</t>
+  </si>
+  <si>
+    <t>Ombaro</t>
+  </si>
+  <si>
+    <t>Tamiambara</t>
+  </si>
+  <si>
+    <t>Tanganbarahon</t>
+  </si>
+  <si>
+    <t>Rajang delta</t>
+  </si>
+  <si>
+    <t>Tanjung Sirik</t>
+  </si>
+  <si>
+    <t>Tasacire</t>
+  </si>
+  <si>
+    <t>Carena</t>
+  </si>
+  <si>
+    <t>Santubong</t>
+  </si>
+  <si>
+    <t>Tajorato</t>
+  </si>
+  <si>
+    <t>Tatomrato</t>
+  </si>
+  <si>
+    <t>Tatonrato</t>
+  </si>
+  <si>
+    <t>Tanjung Datu</t>
+  </si>
+  <si>
+    <t>Tamaratos</t>
+  </si>
+  <si>
+    <t>Tangaranto</t>
+  </si>
+  <si>
+    <t>Tanjung Ratus</t>
+  </si>
+  <si>
+    <t>Lamocata</t>
+  </si>
+  <si>
+    <t>Ye de la mocatam</t>
+  </si>
+  <si>
+    <t>Lane</t>
+  </si>
+  <si>
+    <t>Lano</t>
+  </si>
+  <si>
+    <t>Taiapura</t>
+  </si>
+  <si>
+    <t>Lave</t>
+  </si>
+  <si>
+    <t>Java Major</t>
+  </si>
+  <si>
+    <t>Lao</t>
+  </si>
+  <si>
+    <t>Sukadana</t>
+  </si>
+  <si>
+    <t>http://sws.geonames.org/7582364</t>
+  </si>
+  <si>
+    <t>Teyen</t>
+  </si>
+  <si>
+    <t>River of Lauwe</t>
+  </si>
+  <si>
+    <t>Tajan</t>
+  </si>
+  <si>
+    <t>http://sws.geonames.org/8401699</t>
+  </si>
+  <si>
+    <t>Lauwe</t>
+  </si>
+  <si>
+    <t>Kapuas river</t>
+  </si>
+  <si>
+    <t>Pulu</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>http://sws.geonames.org/1636825</t>
+  </si>
+  <si>
+    <t>Mendawak</t>
+  </si>
+  <si>
+    <t>Simpang</t>
+  </si>
+  <si>
+    <t>http://sws.geonames.org/7857748</t>
+  </si>
+  <si>
+    <t>Labai</t>
+  </si>
+  <si>
+    <t>Lawa</t>
+  </si>
+  <si>
+    <t>Kapuas ketjil</t>
+  </si>
+  <si>
+    <t>Pontianak</t>
+  </si>
+  <si>
+    <t>http://sws.geonames.org/1630789</t>
+  </si>
+  <si>
+    <t>Landak river</t>
+  </si>
+  <si>
+    <t>Succadana</t>
+  </si>
+  <si>
+    <t>Landak</t>
+  </si>
+  <si>
+    <t>Sanggau</t>
+  </si>
+  <si>
+    <t>http://sws.geonames.org/1628802</t>
+  </si>
+  <si>
+    <t>aat_types</t>
+  </si>
+  <si>
+    <t>matches</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>hgc-pp-1001</t>
+  </si>
+  <si>
+    <t>Aq Mečit</t>
+  </si>
+  <si>
+    <t>A Historical-Etymological Dictionary of Pre-Russian Habitation Names of the Crimea (H. Jankowski 2006)</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>gn:693805</t>
+  </si>
+  <si>
+    <t>Aq Mečit district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494769</t>
+  </si>
+  <si>
+    <t>hgc-pp-1002</t>
+  </si>
+  <si>
+    <t>Taqyl</t>
+  </si>
+  <si>
+    <t>gn:7039161</t>
+  </si>
+  <si>
+    <t>hgc-pp-1003</t>
+  </si>
+  <si>
+    <t>Aɣyrmag Eli</t>
+  </si>
+  <si>
+    <t>gn:712755</t>
+  </si>
+  <si>
+    <t>Arabat district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494711</t>
+  </si>
+  <si>
+    <t>hgc-pp-1004</t>
+  </si>
+  <si>
+    <t>Arabat</t>
+  </si>
+  <si>
+    <t>gn:10251758</t>
+  </si>
+  <si>
+    <t>hgc-pp-1005</t>
+  </si>
+  <si>
+    <t>Juqary Baqsan</t>
+  </si>
+  <si>
+    <t>gn:701300</t>
+  </si>
+  <si>
+    <t>Arɣyn district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494733</t>
+  </si>
+  <si>
+    <t>hgc-pp-1006</t>
+  </si>
+  <si>
+    <t>Ulu Sala</t>
+  </si>
+  <si>
+    <t>gn:687378</t>
+  </si>
+  <si>
+    <t>Arpalyq district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494693</t>
+  </si>
+  <si>
+    <t>hgc-pp-1007</t>
+  </si>
+  <si>
+    <t>Baɣča Saraj</t>
+  </si>
+  <si>
+    <t>gn:712969</t>
+  </si>
+  <si>
+    <t>Bahçesaray district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494692</t>
+  </si>
+  <si>
+    <t>hgc-pp-1008</t>
+  </si>
+  <si>
+    <t>Ulaqly</t>
+  </si>
+  <si>
+    <t>gn:708727</t>
+  </si>
+  <si>
+    <t>hgc-pp-1009</t>
+  </si>
+  <si>
+    <t>Bölek Ağy</t>
+  </si>
+  <si>
+    <t>gn:696233</t>
+  </si>
+  <si>
+    <t>Bajnaq district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494628</t>
+  </si>
+  <si>
+    <t>hgc-pp-1010</t>
+  </si>
+  <si>
+    <t>El Buzly</t>
+  </si>
+  <si>
+    <t>gn:697652</t>
+  </si>
+  <si>
+    <t>Baqa Taš district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494811</t>
+  </si>
+  <si>
+    <t>hgc-pp-1011</t>
+  </si>
+  <si>
+    <t>Dürmen</t>
+  </si>
+  <si>
+    <t>gn:696371</t>
+  </si>
+  <si>
+    <t>Četirlik district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494785</t>
+  </si>
+  <si>
+    <t>hgc-pp-1012</t>
+  </si>
+  <si>
+    <t>Ğurtču</t>
+  </si>
+  <si>
+    <t>gn:697568</t>
+  </si>
+  <si>
+    <t>hgc-pp-1013</t>
+  </si>
+  <si>
+    <t>Čujunču</t>
+  </si>
+  <si>
+    <t>gn:6983708</t>
+  </si>
+  <si>
+    <t>Čujunču district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494774</t>
+  </si>
+  <si>
+    <t>hgc-pp-1014</t>
+  </si>
+  <si>
+    <t>Dajyr</t>
+  </si>
+  <si>
+    <t>gn:6986268</t>
+  </si>
+  <si>
+    <t>Dajyr district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494775</t>
+  </si>
+  <si>
+    <t>hgc-pp-1015</t>
+  </si>
+  <si>
+    <t>Avuz Qyrq</t>
+  </si>
+  <si>
+    <t>gn:7021103</t>
+  </si>
+  <si>
+    <t>Dip Čoƞɣar district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494736</t>
+  </si>
+  <si>
+    <t>hgc-pp-1016</t>
+  </si>
+  <si>
+    <t>Najman</t>
+  </si>
+  <si>
+    <t>gn:712105</t>
+  </si>
+  <si>
+    <t>hgc-pp-1017</t>
+  </si>
+  <si>
+    <t>Aq Köz</t>
+  </si>
+  <si>
+    <t>gn:708405</t>
+  </si>
+  <si>
+    <t>Dip Kerč district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494710</t>
+  </si>
+  <si>
+    <t>hgc-pp-1018</t>
+  </si>
+  <si>
+    <t>Köp Taqyl</t>
+  </si>
+  <si>
+    <t>gn:687517</t>
+  </si>
+  <si>
+    <t>hgc-pp-1019</t>
+  </si>
+  <si>
+    <t>Eski Qyrym</t>
+  </si>
+  <si>
+    <t>gn:692714</t>
+  </si>
+  <si>
+    <t>Eski Qyrym district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494709</t>
+  </si>
+  <si>
+    <t>hgc-pp-1020</t>
+  </si>
+  <si>
+    <t>Ajan</t>
+  </si>
+  <si>
+    <t>gn:687656</t>
+  </si>
+  <si>
+    <t>Juqary Ički district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494776</t>
+  </si>
+  <si>
+    <t>hgc-pp-1021</t>
+  </si>
+  <si>
+    <t>Büjük Jaŋköj</t>
+  </si>
+  <si>
+    <t>gn:700661</t>
+  </si>
+  <si>
+    <t>hgc-pp-1022</t>
+  </si>
+  <si>
+    <t>Eski Orda</t>
+  </si>
+  <si>
+    <t>gn:702741</t>
+  </si>
+  <si>
+    <t>hgc-pp-1023</t>
+  </si>
+  <si>
+    <t>Kefe</t>
+  </si>
+  <si>
+    <t>gn:709161</t>
+  </si>
+  <si>
+    <t>Kefe district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494707</t>
+  </si>
+  <si>
+    <t>hgc-pp-1024</t>
+  </si>
+  <si>
+    <t>Ğaɣa Bojnaq</t>
+  </si>
+  <si>
+    <t>gn:687726</t>
+  </si>
+  <si>
+    <t>Kezlev district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494625</t>
+  </si>
+  <si>
+    <t>hgc-pp-1025</t>
+  </si>
+  <si>
+    <t>Kezlev</t>
+  </si>
+  <si>
+    <t>gn:688105</t>
+  </si>
+  <si>
+    <t>hgc-pp-1026</t>
+  </si>
+  <si>
+    <t>Ğaj TamƔaly</t>
+  </si>
+  <si>
+    <t>gn:688156</t>
+  </si>
+  <si>
+    <t>Küčük Qarasuv district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494737</t>
+  </si>
+  <si>
+    <t>hgc-pp-1027</t>
+  </si>
+  <si>
+    <t>Alupka</t>
+  </si>
+  <si>
+    <t>gn:713514</t>
+  </si>
+  <si>
+    <t>Mangup district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494691</t>
+  </si>
+  <si>
+    <t>hgc-pp-1028</t>
+  </si>
+  <si>
+    <t>Aqjar</t>
+  </si>
+  <si>
+    <t>gn:694423</t>
+  </si>
+  <si>
+    <t>hgc-pp-1029</t>
+  </si>
+  <si>
+    <t>Autka</t>
+  </si>
+  <si>
+    <t>gn:710878</t>
+  </si>
+  <si>
+    <t>hgc-pp-1030</t>
+  </si>
+  <si>
+    <t>Baɣa</t>
+  </si>
+  <si>
+    <t>gn:699659</t>
+  </si>
+  <si>
+    <t>hgc-pp-1031</t>
+  </si>
+  <si>
+    <t>Bajdar</t>
+  </si>
+  <si>
+    <t>gn:698391</t>
+  </si>
+  <si>
+    <t>hgc-pp-1032</t>
+  </si>
+  <si>
+    <t>Balyglava</t>
+  </si>
+  <si>
+    <t>gn:712930</t>
+  </si>
+  <si>
+    <t>hgc-pp-1033</t>
+  </si>
+  <si>
+    <t>Büjük Lambat</t>
+  </si>
+  <si>
+    <t>gn:701947</t>
+  </si>
+  <si>
+    <t>hgc-pp-1034</t>
+  </si>
+  <si>
+    <t>Čerkez Kermen</t>
+  </si>
+  <si>
+    <t>gn:704116</t>
+  </si>
+  <si>
+    <t>hgc-pp-1035</t>
+  </si>
+  <si>
+    <t>Dermen Köj</t>
+  </si>
+  <si>
+    <t>gn:687670</t>
+  </si>
+  <si>
+    <t>hgc-pp-1036</t>
+  </si>
+  <si>
+    <t>Kamara</t>
+  </si>
+  <si>
+    <t>gn:698800</t>
+  </si>
+  <si>
+    <t>hgc-pp-1037</t>
+  </si>
+  <si>
+    <t>Karany</t>
+  </si>
+  <si>
+    <t>gn:709121</t>
+  </si>
+  <si>
+    <t>hgc-pp-1038</t>
+  </si>
+  <si>
+    <t>Küčük Lambat</t>
+  </si>
+  <si>
+    <t>gn:8410751</t>
+  </si>
+  <si>
+    <t>hgc-pp-1039</t>
+  </si>
+  <si>
+    <t>Partenit</t>
+  </si>
+  <si>
+    <t>gn:709075</t>
+  </si>
+  <si>
+    <t>hgc-pp-1040</t>
+  </si>
+  <si>
+    <t>Qady Köj</t>
+  </si>
+  <si>
+    <t>gn:11153758</t>
+  </si>
+  <si>
+    <t>hgc-pp-1041</t>
+  </si>
+  <si>
+    <t>Savatka</t>
+  </si>
+  <si>
+    <t>gn:695409</t>
+  </si>
+  <si>
+    <t>hgc-pp-1042</t>
+  </si>
+  <si>
+    <t>Aq Šejiχ</t>
+  </si>
+  <si>
+    <t>gn:695740</t>
+  </si>
+  <si>
+    <t>Maŋɣyt district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494622</t>
+  </si>
+  <si>
+    <t>hgc-pp-1043</t>
+  </si>
+  <si>
+    <t>Kerlevüt</t>
+  </si>
+  <si>
+    <t>gn:689343</t>
+  </si>
+  <si>
+    <t>hgc-pp-1044</t>
+  </si>
+  <si>
+    <t>Burnaš</t>
+  </si>
+  <si>
+    <t>gn:7019389</t>
+  </si>
+  <si>
+    <t>Nasyv district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494738</t>
+  </si>
+  <si>
+    <t>hgc-pp-1045</t>
+  </si>
+  <si>
+    <t>Dede</t>
+  </si>
+  <si>
+    <t>gn:11468221</t>
+  </si>
+  <si>
+    <t>Or district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494791</t>
+  </si>
+  <si>
+    <t>hgc-pp-1046</t>
+  </si>
+  <si>
+    <t>Ermeni Bazar</t>
+  </si>
+  <si>
+    <t>gn:713203</t>
+  </si>
+  <si>
+    <t>hgc-pp-1047</t>
+  </si>
+  <si>
+    <t>Ğanɣara</t>
+  </si>
+  <si>
+    <t>gn:706708</t>
+  </si>
+  <si>
+    <t>hgc-pp-1048</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>gn:697729</t>
+  </si>
+  <si>
+    <t>hgc-pp-1049</t>
+  </si>
+  <si>
+    <t>Qart Qazaq</t>
+  </si>
+  <si>
+    <t>gn:691777</t>
+  </si>
+  <si>
+    <t>hgc-pp-1050</t>
+  </si>
+  <si>
+    <t>Tuzla</t>
+  </si>
+  <si>
+    <t>gn:7027004</t>
+  </si>
+  <si>
+    <t>hgc-pp-1051</t>
+  </si>
+  <si>
+    <t>Üjšün</t>
+  </si>
+  <si>
+    <t>gn:707544</t>
+  </si>
+  <si>
+    <t>hgc-pp-1052</t>
+  </si>
+  <si>
+    <t>Kök Tejin</t>
+  </si>
+  <si>
+    <t>gn:697079</t>
+  </si>
+  <si>
+    <t>Orta Čoŋɣar district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494739</t>
+  </si>
+  <si>
+    <t>hgc-pp-1053</t>
+  </si>
+  <si>
+    <t>Qodaɣaj</t>
+  </si>
+  <si>
+    <t>gn:688711</t>
+  </si>
+  <si>
+    <t>hgc-pp-1054</t>
+  </si>
+  <si>
+    <t>Uzun Saqal</t>
+  </si>
+  <si>
+    <t>gn:7020275</t>
+  </si>
+  <si>
+    <t>hgc-pp-1055</t>
+  </si>
+  <si>
+    <t>Aqtačy</t>
+  </si>
+  <si>
+    <t>gn:709064</t>
+  </si>
+  <si>
+    <t>Qačy district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11497032</t>
+  </si>
+  <si>
+    <t>hgc-pp-1056</t>
+  </si>
+  <si>
+    <t>Eski El</t>
+  </si>
+  <si>
+    <t>gn:709268</t>
+  </si>
+  <si>
+    <t>hgc-pp-1057</t>
+  </si>
+  <si>
+    <t>Qačy</t>
+  </si>
+  <si>
+    <t>gn:11468273</t>
+  </si>
+  <si>
+    <t>hgc-pp-1063</t>
+  </si>
+  <si>
+    <t>Ajlanma</t>
+  </si>
+  <si>
+    <t>gn:713090</t>
+  </si>
+  <si>
+    <t>Qarasuv Bazar district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494740</t>
+  </si>
+  <si>
+    <t>hgc-pp-1064</t>
+  </si>
+  <si>
+    <t>Ğemrik</t>
+  </si>
+  <si>
+    <t>gn:6998264</t>
+  </si>
+  <si>
+    <t>hgc-pp-1065</t>
+  </si>
+  <si>
+    <t>Ajbar</t>
+  </si>
+  <si>
+    <t>gn:688903</t>
+  </si>
+  <si>
+    <t>Qaravul district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494790</t>
+  </si>
+  <si>
+    <t>hgc-pp-1066</t>
+  </si>
+  <si>
+    <t>Mamut Sultan</t>
+  </si>
+  <si>
+    <t>gn:709869</t>
+  </si>
+  <si>
+    <t>Salɣyr district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494779</t>
+  </si>
+  <si>
+    <t>hgc-pp-1067</t>
+  </si>
+  <si>
+    <t>Orta Sobla</t>
+  </si>
+  <si>
+    <t>gn:697959</t>
+  </si>
+  <si>
+    <t>hgc-pp-1068</t>
+  </si>
+  <si>
+    <t>Kyš Qara</t>
+  </si>
+  <si>
+    <t>gn:703618</t>
+  </si>
+  <si>
+    <t>Samarčyq district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494788</t>
+  </si>
+  <si>
+    <t>hgc-pp-1069</t>
+  </si>
+  <si>
+    <t>Sary Baš</t>
+  </si>
+  <si>
+    <t>gn:691920</t>
+  </si>
+  <si>
+    <t>hgc-pp-1070</t>
+  </si>
+  <si>
+    <t>Toqulčaq</t>
+  </si>
+  <si>
+    <t>gn:708061</t>
+  </si>
+  <si>
+    <t>hgc-pp-1071</t>
+  </si>
+  <si>
+    <t>Burlaq</t>
+  </si>
+  <si>
+    <t>gn:699493</t>
+  </si>
+  <si>
+    <t>Saqal district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494786</t>
+  </si>
+  <si>
+    <t>hgc-pp-1072</t>
+  </si>
+  <si>
+    <t>Qara Qytaj</t>
+  </si>
+  <si>
+    <t>gn:11468235</t>
+  </si>
+  <si>
+    <t>hgc-pp-1073</t>
+  </si>
+  <si>
+    <t>Qarač</t>
+  </si>
+  <si>
+    <t>gn:706837</t>
+  </si>
+  <si>
+    <t>hgc-pp-1074</t>
+  </si>
+  <si>
+    <t>Manaj</t>
+  </si>
+  <si>
+    <t>gn:686748</t>
+  </si>
+  <si>
+    <t>Sejiχ Eli district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494620</t>
+  </si>
+  <si>
+    <t>hgc-pp-1075</t>
+  </si>
+  <si>
+    <t>Šejiχ Eli</t>
+  </si>
+  <si>
+    <t>gn:712313</t>
+  </si>
+  <si>
+    <t>hgc-pp-1076</t>
+  </si>
+  <si>
+    <t>Aq Köbek</t>
+  </si>
+  <si>
+    <t>gn:694378</t>
+  </si>
+  <si>
+    <t>Širin district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494705</t>
+  </si>
+  <si>
+    <t>hgc-pp-1077</t>
+  </si>
+  <si>
+    <t>Murza Köj</t>
+  </si>
+  <si>
+    <t>gn:700602</t>
+  </si>
+  <si>
+    <t>hgc-pp-1078</t>
+  </si>
+  <si>
+    <t>Qara Baj</t>
+  </si>
+  <si>
+    <t>gn:695669</t>
+  </si>
+  <si>
+    <t>hgc-pp-1079</t>
+  </si>
+  <si>
+    <t>Töben Saraj</t>
+  </si>
+  <si>
+    <t>gn:6999493</t>
+  </si>
+  <si>
+    <t>hgc-pp-1080</t>
+  </si>
+  <si>
+    <t>Üč Quju</t>
+  </si>
+  <si>
+    <t>gn:688929</t>
+  </si>
+  <si>
+    <t>hgc-pp-1081</t>
+  </si>
+  <si>
+    <t>Aj Serez</t>
+  </si>
+  <si>
+    <t>gn:701311</t>
+  </si>
+  <si>
+    <t>Sudaq district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494704</t>
+  </si>
+  <si>
+    <t>hgc-pp-1082</t>
+  </si>
+  <si>
+    <t>Alušta</t>
+  </si>
+  <si>
+    <t>gn:713513</t>
+  </si>
+  <si>
+    <t>hgc-pp-1083</t>
+  </si>
+  <si>
+    <t>Arpat</t>
+  </si>
+  <si>
+    <t>gn:687388</t>
+  </si>
+  <si>
+    <t>hgc-pp-1084</t>
+  </si>
+  <si>
+    <t>Qoz</t>
+  </si>
+  <si>
+    <t>gn:693219</t>
+  </si>
+  <si>
+    <t>hgc-pp-1085</t>
+  </si>
+  <si>
+    <t>Quru Özen</t>
+  </si>
+  <si>
+    <t>gn:693218</t>
+  </si>
+  <si>
+    <t>hgc-pp-1086</t>
+  </si>
+  <si>
+    <t>Sudaq</t>
+  </si>
+  <si>
+    <t>gn:692315</t>
+  </si>
+  <si>
+    <t>hgc-pp-1087</t>
+  </si>
+  <si>
+    <t>Šuma</t>
+  </si>
+  <si>
+    <t>gn:703518</t>
+  </si>
+  <si>
+    <t>hgc-pp-1088</t>
+  </si>
+  <si>
+    <t>Suvuk Suv</t>
+  </si>
+  <si>
+    <t>gn:703169</t>
+  </si>
+  <si>
+    <t>hgc-pp-1089</t>
+  </si>
+  <si>
+    <t>Ulu Özen</t>
+  </si>
+  <si>
+    <t>gn:708879</t>
+  </si>
+  <si>
+    <t>hgc-pp-1090</t>
+  </si>
+  <si>
+    <t>Voron</t>
+  </si>
+  <si>
+    <t>gn:689035</t>
+  </si>
+  <si>
+    <t>hgc-pp-1091</t>
+  </si>
+  <si>
+    <t>Qara Töbel</t>
+  </si>
+  <si>
+    <t>gn:702461</t>
+  </si>
+  <si>
+    <t>Tamaq district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494741</t>
+  </si>
+  <si>
+    <t>hgc-pp-1092</t>
+  </si>
+  <si>
+    <t>Tarqanlar</t>
+  </si>
+  <si>
+    <t>gn:710904</t>
+  </si>
+  <si>
+    <t>hgc-pp-1093</t>
+  </si>
+  <si>
+    <t>Jaš Bek</t>
+  </si>
+  <si>
+    <t>gn:7027852</t>
+  </si>
+  <si>
+    <t>Tarɣan district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494617</t>
+  </si>
+  <si>
+    <t>hgc-pp-1094</t>
+  </si>
+  <si>
+    <t>Qarağy</t>
+  </si>
+  <si>
+    <t>gn:461727</t>
+  </si>
+  <si>
+    <t>hgc-pp-1095</t>
+  </si>
+  <si>
+    <t>Tabuldy As</t>
+  </si>
+  <si>
+    <t>gn:7027764</t>
+  </si>
+  <si>
+    <t>hgc-pp-1096</t>
+  </si>
+  <si>
+    <t>Büjük Onlar</t>
+  </si>
+  <si>
+    <t>gn:698652</t>
+  </si>
+  <si>
+    <t>Tašly district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494782</t>
+  </si>
+  <si>
+    <t>hgc-pp-1097</t>
+  </si>
+  <si>
+    <t>Itaq</t>
+  </si>
+  <si>
+    <t>gn:705258</t>
+  </si>
+  <si>
+    <t>hgc-pp-1098</t>
+  </si>
+  <si>
+    <t>Tašly Dajyr</t>
+  </si>
+  <si>
+    <t>gn:702248</t>
+  </si>
+  <si>
+    <t>hgc-pp-1099</t>
+  </si>
+  <si>
+    <t>Qaja Asty</t>
+  </si>
+  <si>
+    <t>gn:702921</t>
+  </si>
+  <si>
+    <t>Zuja district</t>
+  </si>
+  <si>
+    <t>http://www.geonames.org/11494783</t>
+  </si>
+  <si>
+    <t>habitation</t>
   </si>
 </sst>
 </file>
@@ -3123,9 +4676,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FA19E3-35D9-7848-B6D6-FC931189EDB6}">
   <dimension ref="A1:L182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G154" sqref="G154"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9966,4 +11519,7454 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389E144A-0512-7045-90AE-5162E88C5920}">
+  <dimension ref="A1:J136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>910</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G1" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1" t="s">
+        <v>917</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C2" t="s">
+        <v>919</v>
+      </c>
+      <c r="D2" t="s">
+        <v>912</v>
+      </c>
+      <c r="I2">
+        <v>1800</v>
+      </c>
+      <c r="J2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C3" t="s">
+        <v>919</v>
+      </c>
+      <c r="D3" t="s">
+        <v>912</v>
+      </c>
+      <c r="I3">
+        <v>1800</v>
+      </c>
+      <c r="J3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>921</v>
+      </c>
+      <c r="C4" t="s">
+        <v>919</v>
+      </c>
+      <c r="D4" t="s">
+        <v>912</v>
+      </c>
+      <c r="E4" t="s">
+        <v>922</v>
+      </c>
+      <c r="I4">
+        <v>1800</v>
+      </c>
+      <c r="J4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>923</v>
+      </c>
+      <c r="C5" t="s">
+        <v>919</v>
+      </c>
+      <c r="D5" t="s">
+        <v>912</v>
+      </c>
+      <c r="E5" t="s">
+        <v>924</v>
+      </c>
+      <c r="I5">
+        <v>1800</v>
+      </c>
+      <c r="J5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>925</v>
+      </c>
+      <c r="C6" t="s">
+        <v>919</v>
+      </c>
+      <c r="D6" t="s">
+        <v>912</v>
+      </c>
+      <c r="E6" t="s">
+        <v>926</v>
+      </c>
+      <c r="I6">
+        <v>1800</v>
+      </c>
+      <c r="J6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>927</v>
+      </c>
+      <c r="C7" t="s">
+        <v>919</v>
+      </c>
+      <c r="D7" t="s">
+        <v>912</v>
+      </c>
+      <c r="E7" t="s">
+        <v>926</v>
+      </c>
+      <c r="I7">
+        <v>1800</v>
+      </c>
+      <c r="J7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>928</v>
+      </c>
+      <c r="C8" t="s">
+        <v>919</v>
+      </c>
+      <c r="D8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E8" t="s">
+        <v>926</v>
+      </c>
+      <c r="I8">
+        <v>1800</v>
+      </c>
+      <c r="J8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>929</v>
+      </c>
+      <c r="C9" t="s">
+        <v>919</v>
+      </c>
+      <c r="D9" t="s">
+        <v>912</v>
+      </c>
+      <c r="E9" t="s">
+        <v>926</v>
+      </c>
+      <c r="I9">
+        <v>1800</v>
+      </c>
+      <c r="J9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>930</v>
+      </c>
+      <c r="C10" t="s">
+        <v>919</v>
+      </c>
+      <c r="D10" t="s">
+        <v>912</v>
+      </c>
+      <c r="E10" t="s">
+        <v>926</v>
+      </c>
+      <c r="I10">
+        <v>1800</v>
+      </c>
+      <c r="J10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>931</v>
+      </c>
+      <c r="C11" t="s">
+        <v>919</v>
+      </c>
+      <c r="D11" t="s">
+        <v>912</v>
+      </c>
+      <c r="E11" t="s">
+        <v>926</v>
+      </c>
+      <c r="F11" t="s">
+        <v>932</v>
+      </c>
+      <c r="G11">
+        <v>-2.5314999999999999</v>
+      </c>
+      <c r="H11">
+        <v>112.9496</v>
+      </c>
+      <c r="I11">
+        <v>1800</v>
+      </c>
+      <c r="J11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>933</v>
+      </c>
+      <c r="C12" t="s">
+        <v>919</v>
+      </c>
+      <c r="D12" t="s">
+        <v>912</v>
+      </c>
+      <c r="E12" t="s">
+        <v>922</v>
+      </c>
+      <c r="I12">
+        <v>1800</v>
+      </c>
+      <c r="J12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>934</v>
+      </c>
+      <c r="C13" t="s">
+        <v>919</v>
+      </c>
+      <c r="D13" t="s">
+        <v>912</v>
+      </c>
+      <c r="E13" t="s">
+        <v>926</v>
+      </c>
+      <c r="I13">
+        <v>1800</v>
+      </c>
+      <c r="J13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>935</v>
+      </c>
+      <c r="C14" t="s">
+        <v>919</v>
+      </c>
+      <c r="D14" t="s">
+        <v>912</v>
+      </c>
+      <c r="E14" t="s">
+        <v>926</v>
+      </c>
+      <c r="F14" t="s">
+        <v>936</v>
+      </c>
+      <c r="G14">
+        <v>1.3333299999999999</v>
+      </c>
+      <c r="H14">
+        <v>109.25</v>
+      </c>
+      <c r="I14">
+        <v>1800</v>
+      </c>
+      <c r="J14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>937</v>
+      </c>
+      <c r="C15" t="s">
+        <v>919</v>
+      </c>
+      <c r="D15" t="s">
+        <v>912</v>
+      </c>
+      <c r="E15" t="s">
+        <v>926</v>
+      </c>
+      <c r="I15">
+        <v>1800</v>
+      </c>
+      <c r="J15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>938</v>
+      </c>
+      <c r="C16" t="s">
+        <v>919</v>
+      </c>
+      <c r="D16" t="s">
+        <v>912</v>
+      </c>
+      <c r="E16" t="s">
+        <v>926</v>
+      </c>
+      <c r="I16">
+        <v>1800</v>
+      </c>
+      <c r="J16">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>939</v>
+      </c>
+      <c r="C17" t="s">
+        <v>919</v>
+      </c>
+      <c r="D17" t="s">
+        <v>912</v>
+      </c>
+      <c r="E17" t="s">
+        <v>926</v>
+      </c>
+      <c r="I17">
+        <v>1800</v>
+      </c>
+      <c r="J17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>940</v>
+      </c>
+      <c r="C18" t="s">
+        <v>919</v>
+      </c>
+      <c r="D18" t="s">
+        <v>912</v>
+      </c>
+      <c r="E18" t="s">
+        <v>926</v>
+      </c>
+      <c r="F18" t="s">
+        <v>941</v>
+      </c>
+      <c r="G18">
+        <v>-9.5922999999999998</v>
+      </c>
+      <c r="H18">
+        <v>120.22329999999999</v>
+      </c>
+      <c r="I18">
+        <v>1800</v>
+      </c>
+      <c r="J18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>942</v>
+      </c>
+      <c r="C19" t="s">
+        <v>919</v>
+      </c>
+      <c r="D19" t="s">
+        <v>912</v>
+      </c>
+      <c r="I19">
+        <v>1800</v>
+      </c>
+      <c r="J19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>943</v>
+      </c>
+      <c r="C20" t="s">
+        <v>919</v>
+      </c>
+      <c r="D20" t="s">
+        <v>912</v>
+      </c>
+      <c r="E20" t="s">
+        <v>926</v>
+      </c>
+      <c r="I20">
+        <v>1800</v>
+      </c>
+      <c r="J20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>944</v>
+      </c>
+      <c r="C21" t="s">
+        <v>919</v>
+      </c>
+      <c r="D21" t="s">
+        <v>912</v>
+      </c>
+      <c r="E21" t="s">
+        <v>926</v>
+      </c>
+      <c r="I21">
+        <v>1800</v>
+      </c>
+      <c r="J21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C22" t="s">
+        <v>919</v>
+      </c>
+      <c r="D22" t="s">
+        <v>912</v>
+      </c>
+      <c r="E22" t="s">
+        <v>926</v>
+      </c>
+      <c r="I22">
+        <v>1800</v>
+      </c>
+      <c r="J22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>946</v>
+      </c>
+      <c r="C23" t="s">
+        <v>919</v>
+      </c>
+      <c r="D23" t="s">
+        <v>912</v>
+      </c>
+      <c r="E23" t="s">
+        <v>926</v>
+      </c>
+      <c r="I23">
+        <v>1800</v>
+      </c>
+      <c r="J23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>947</v>
+      </c>
+      <c r="C24" t="s">
+        <v>919</v>
+      </c>
+      <c r="D24" t="s">
+        <v>912</v>
+      </c>
+      <c r="E24" t="s">
+        <v>926</v>
+      </c>
+      <c r="I24">
+        <v>1800</v>
+      </c>
+      <c r="J24">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C25" t="s">
+        <v>919</v>
+      </c>
+      <c r="D25" t="s">
+        <v>912</v>
+      </c>
+      <c r="E25" t="s">
+        <v>926</v>
+      </c>
+      <c r="I25">
+        <v>1800</v>
+      </c>
+      <c r="J25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>949</v>
+      </c>
+      <c r="C26" t="s">
+        <v>919</v>
+      </c>
+      <c r="D26" t="s">
+        <v>912</v>
+      </c>
+      <c r="E26" t="s">
+        <v>926</v>
+      </c>
+      <c r="F26" t="s">
+        <v>950</v>
+      </c>
+      <c r="G26">
+        <v>2.1399400000000002</v>
+      </c>
+      <c r="H26">
+        <v>100.80747</v>
+      </c>
+      <c r="I26">
+        <v>1800</v>
+      </c>
+      <c r="J26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>951</v>
+      </c>
+      <c r="C27" t="s">
+        <v>919</v>
+      </c>
+      <c r="D27" t="s">
+        <v>912</v>
+      </c>
+      <c r="E27" t="s">
+        <v>926</v>
+      </c>
+      <c r="I27">
+        <v>1800</v>
+      </c>
+      <c r="J27">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>952</v>
+      </c>
+      <c r="C28" t="s">
+        <v>919</v>
+      </c>
+      <c r="D28" t="s">
+        <v>912</v>
+      </c>
+      <c r="E28" t="s">
+        <v>926</v>
+      </c>
+      <c r="I28">
+        <v>1800</v>
+      </c>
+      <c r="J28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>953</v>
+      </c>
+      <c r="C29" t="s">
+        <v>919</v>
+      </c>
+      <c r="D29" t="s">
+        <v>912</v>
+      </c>
+      <c r="E29" t="s">
+        <v>926</v>
+      </c>
+      <c r="I29">
+        <v>1800</v>
+      </c>
+      <c r="J29">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>954</v>
+      </c>
+      <c r="C30" t="s">
+        <v>919</v>
+      </c>
+      <c r="D30" t="s">
+        <v>912</v>
+      </c>
+      <c r="E30" t="s">
+        <v>926</v>
+      </c>
+      <c r="I30">
+        <v>1800</v>
+      </c>
+      <c r="J30">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>955</v>
+      </c>
+      <c r="C31" t="s">
+        <v>919</v>
+      </c>
+      <c r="D31" t="s">
+        <v>912</v>
+      </c>
+      <c r="E31" t="s">
+        <v>926</v>
+      </c>
+      <c r="I31">
+        <v>1800</v>
+      </c>
+      <c r="J31">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>956</v>
+      </c>
+      <c r="C32" t="s">
+        <v>919</v>
+      </c>
+      <c r="D32" t="s">
+        <v>912</v>
+      </c>
+      <c r="E32" t="s">
+        <v>926</v>
+      </c>
+      <c r="I32">
+        <v>1800</v>
+      </c>
+      <c r="J32">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>957</v>
+      </c>
+      <c r="C33" t="s">
+        <v>919</v>
+      </c>
+      <c r="D33" t="s">
+        <v>912</v>
+      </c>
+      <c r="E33" t="s">
+        <v>958</v>
+      </c>
+      <c r="I33">
+        <v>1800</v>
+      </c>
+      <c r="J33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>959</v>
+      </c>
+      <c r="C34" t="s">
+        <v>919</v>
+      </c>
+      <c r="D34" t="s">
+        <v>912</v>
+      </c>
+      <c r="E34" t="s">
+        <v>926</v>
+      </c>
+      <c r="I34">
+        <v>1800</v>
+      </c>
+      <c r="J34">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>960</v>
+      </c>
+      <c r="C35" t="s">
+        <v>919</v>
+      </c>
+      <c r="D35" t="s">
+        <v>912</v>
+      </c>
+      <c r="E35" t="s">
+        <v>926</v>
+      </c>
+      <c r="I35">
+        <v>1800</v>
+      </c>
+      <c r="J35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>961</v>
+      </c>
+      <c r="C36" t="s">
+        <v>919</v>
+      </c>
+      <c r="D36" t="s">
+        <v>912</v>
+      </c>
+      <c r="E36" t="s">
+        <v>922</v>
+      </c>
+      <c r="I36">
+        <v>1800</v>
+      </c>
+      <c r="J36">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>962</v>
+      </c>
+      <c r="C37" t="s">
+        <v>919</v>
+      </c>
+      <c r="D37" t="s">
+        <v>912</v>
+      </c>
+      <c r="E37" t="s">
+        <v>926</v>
+      </c>
+      <c r="I37">
+        <v>1800</v>
+      </c>
+      <c r="J37">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>963</v>
+      </c>
+      <c r="C38" t="s">
+        <v>919</v>
+      </c>
+      <c r="D38" t="s">
+        <v>912</v>
+      </c>
+      <c r="E38" t="s">
+        <v>964</v>
+      </c>
+      <c r="I38">
+        <v>1800</v>
+      </c>
+      <c r="J38">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>965</v>
+      </c>
+      <c r="C39" t="s">
+        <v>919</v>
+      </c>
+      <c r="D39" t="s">
+        <v>912</v>
+      </c>
+      <c r="E39" t="s">
+        <v>926</v>
+      </c>
+      <c r="I39">
+        <v>1800</v>
+      </c>
+      <c r="J39">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>966</v>
+      </c>
+      <c r="C40" t="s">
+        <v>919</v>
+      </c>
+      <c r="D40" t="s">
+        <v>912</v>
+      </c>
+      <c r="E40" t="s">
+        <v>926</v>
+      </c>
+      <c r="I40">
+        <v>1800</v>
+      </c>
+      <c r="J40">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>967</v>
+      </c>
+      <c r="C41" t="s">
+        <v>919</v>
+      </c>
+      <c r="D41" t="s">
+        <v>912</v>
+      </c>
+      <c r="E41" t="s">
+        <v>926</v>
+      </c>
+      <c r="I41">
+        <v>1800</v>
+      </c>
+      <c r="J41">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>968</v>
+      </c>
+      <c r="C42" t="s">
+        <v>919</v>
+      </c>
+      <c r="D42" t="s">
+        <v>912</v>
+      </c>
+      <c r="E42" t="s">
+        <v>926</v>
+      </c>
+      <c r="F42" t="s">
+        <v>969</v>
+      </c>
+      <c r="G42">
+        <v>2.5</v>
+      </c>
+      <c r="H42">
+        <v>113.5</v>
+      </c>
+      <c r="I42">
+        <v>1800</v>
+      </c>
+      <c r="J42">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>970</v>
+      </c>
+      <c r="C43" t="s">
+        <v>919</v>
+      </c>
+      <c r="D43" t="s">
+        <v>912</v>
+      </c>
+      <c r="E43" t="s">
+        <v>926</v>
+      </c>
+      <c r="I43">
+        <v>1800</v>
+      </c>
+      <c r="J43">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>971</v>
+      </c>
+      <c r="C44" t="s">
+        <v>919</v>
+      </c>
+      <c r="D44" t="s">
+        <v>912</v>
+      </c>
+      <c r="E44" t="s">
+        <v>926</v>
+      </c>
+      <c r="I44">
+        <v>1800</v>
+      </c>
+      <c r="J44">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>972</v>
+      </c>
+      <c r="C45" t="s">
+        <v>919</v>
+      </c>
+      <c r="D45" t="s">
+        <v>912</v>
+      </c>
+      <c r="E45" t="s">
+        <v>926</v>
+      </c>
+      <c r="I45">
+        <v>1800</v>
+      </c>
+      <c r="J45">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>973</v>
+      </c>
+      <c r="C46" t="s">
+        <v>919</v>
+      </c>
+      <c r="D46" t="s">
+        <v>912</v>
+      </c>
+      <c r="E46" t="s">
+        <v>926</v>
+      </c>
+      <c r="I46">
+        <v>1800</v>
+      </c>
+      <c r="J46">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>974</v>
+      </c>
+      <c r="C47" t="s">
+        <v>919</v>
+      </c>
+      <c r="D47" t="s">
+        <v>912</v>
+      </c>
+      <c r="E47" t="s">
+        <v>926</v>
+      </c>
+      <c r="I47">
+        <v>1800</v>
+      </c>
+      <c r="J47">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>975</v>
+      </c>
+      <c r="C48" t="s">
+        <v>919</v>
+      </c>
+      <c r="D48" t="s">
+        <v>912</v>
+      </c>
+      <c r="I48">
+        <v>1800</v>
+      </c>
+      <c r="J48">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>976</v>
+      </c>
+      <c r="C49" t="s">
+        <v>919</v>
+      </c>
+      <c r="D49" t="s">
+        <v>912</v>
+      </c>
+      <c r="E49" t="s">
+        <v>924</v>
+      </c>
+      <c r="I49">
+        <v>1800</v>
+      </c>
+      <c r="J49">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>977</v>
+      </c>
+      <c r="C50" t="s">
+        <v>919</v>
+      </c>
+      <c r="D50" t="s">
+        <v>912</v>
+      </c>
+      <c r="E50" t="s">
+        <v>924</v>
+      </c>
+      <c r="I50">
+        <v>1800</v>
+      </c>
+      <c r="J50">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>978</v>
+      </c>
+      <c r="C51" t="s">
+        <v>919</v>
+      </c>
+      <c r="D51" t="s">
+        <v>912</v>
+      </c>
+      <c r="E51" t="s">
+        <v>924</v>
+      </c>
+      <c r="F51" t="s">
+        <v>979</v>
+      </c>
+      <c r="G51">
+        <v>4.5</v>
+      </c>
+      <c r="H51">
+        <v>114.66667</v>
+      </c>
+      <c r="I51">
+        <v>1800</v>
+      </c>
+      <c r="J51">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>980</v>
+      </c>
+      <c r="C52" t="s">
+        <v>919</v>
+      </c>
+      <c r="D52" t="s">
+        <v>912</v>
+      </c>
+      <c r="E52" t="s">
+        <v>926</v>
+      </c>
+      <c r="F52" t="s">
+        <v>981</v>
+      </c>
+      <c r="G52">
+        <v>-7.1146000000000003</v>
+      </c>
+      <c r="H52">
+        <v>112.3866</v>
+      </c>
+      <c r="I52">
+        <v>1800</v>
+      </c>
+      <c r="J52">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>982</v>
+      </c>
+      <c r="C53" t="s">
+        <v>919</v>
+      </c>
+      <c r="D53" t="s">
+        <v>912</v>
+      </c>
+      <c r="E53" t="s">
+        <v>922</v>
+      </c>
+      <c r="I53">
+        <v>1800</v>
+      </c>
+      <c r="J53">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>983</v>
+      </c>
+      <c r="C54" t="s">
+        <v>919</v>
+      </c>
+      <c r="D54" t="s">
+        <v>912</v>
+      </c>
+      <c r="E54" t="s">
+        <v>926</v>
+      </c>
+      <c r="F54" t="s">
+        <v>984</v>
+      </c>
+      <c r="G54">
+        <v>-3.2384599999999999</v>
+      </c>
+      <c r="H54">
+        <v>130.14527000000001</v>
+      </c>
+      <c r="I54">
+        <v>1800</v>
+      </c>
+      <c r="J54">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>985</v>
+      </c>
+      <c r="C55" t="s">
+        <v>919</v>
+      </c>
+      <c r="D55" t="s">
+        <v>912</v>
+      </c>
+      <c r="E55" t="s">
+        <v>922</v>
+      </c>
+      <c r="I55">
+        <v>1800</v>
+      </c>
+      <c r="J55">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>986</v>
+      </c>
+      <c r="C56" t="s">
+        <v>919</v>
+      </c>
+      <c r="D56" t="s">
+        <v>912</v>
+      </c>
+      <c r="I56">
+        <v>1800</v>
+      </c>
+      <c r="J56">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>987</v>
+      </c>
+      <c r="C57" t="s">
+        <v>919</v>
+      </c>
+      <c r="D57" t="s">
+        <v>912</v>
+      </c>
+      <c r="I57">
+        <v>1800</v>
+      </c>
+      <c r="J57">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>988</v>
+      </c>
+      <c r="C58" t="s">
+        <v>919</v>
+      </c>
+      <c r="D58" t="s">
+        <v>912</v>
+      </c>
+      <c r="I58">
+        <v>1800</v>
+      </c>
+      <c r="J58">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>989</v>
+      </c>
+      <c r="C59" t="s">
+        <v>919</v>
+      </c>
+      <c r="D59" t="s">
+        <v>912</v>
+      </c>
+      <c r="I59">
+        <v>1800</v>
+      </c>
+      <c r="J59">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>990</v>
+      </c>
+      <c r="C60" t="s">
+        <v>919</v>
+      </c>
+      <c r="D60" t="s">
+        <v>912</v>
+      </c>
+      <c r="E60" t="s">
+        <v>926</v>
+      </c>
+      <c r="I60">
+        <v>1800</v>
+      </c>
+      <c r="J60">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>991</v>
+      </c>
+      <c r="C61" t="s">
+        <v>919</v>
+      </c>
+      <c r="D61" t="s">
+        <v>912</v>
+      </c>
+      <c r="E61" t="s">
+        <v>926</v>
+      </c>
+      <c r="I61">
+        <v>1800</v>
+      </c>
+      <c r="J61">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>992</v>
+      </c>
+      <c r="C62" t="s">
+        <v>919</v>
+      </c>
+      <c r="D62" t="s">
+        <v>912</v>
+      </c>
+      <c r="E62" t="s">
+        <v>926</v>
+      </c>
+      <c r="I62">
+        <v>1800</v>
+      </c>
+      <c r="J62">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>993</v>
+      </c>
+      <c r="C63" t="s">
+        <v>919</v>
+      </c>
+      <c r="D63" t="s">
+        <v>912</v>
+      </c>
+      <c r="E63" t="s">
+        <v>926</v>
+      </c>
+      <c r="I63">
+        <v>1800</v>
+      </c>
+      <c r="J63">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>994</v>
+      </c>
+      <c r="C64" t="s">
+        <v>919</v>
+      </c>
+      <c r="D64" t="s">
+        <v>912</v>
+      </c>
+      <c r="E64" t="s">
+        <v>926</v>
+      </c>
+      <c r="I64">
+        <v>1800</v>
+      </c>
+      <c r="J64">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>995</v>
+      </c>
+      <c r="C65" t="s">
+        <v>919</v>
+      </c>
+      <c r="D65" t="s">
+        <v>912</v>
+      </c>
+      <c r="E65" t="s">
+        <v>926</v>
+      </c>
+      <c r="I65">
+        <v>1800</v>
+      </c>
+      <c r="J65">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>996</v>
+      </c>
+      <c r="C66" t="s">
+        <v>919</v>
+      </c>
+      <c r="D66" t="s">
+        <v>912</v>
+      </c>
+      <c r="E66" t="s">
+        <v>926</v>
+      </c>
+      <c r="I66">
+        <v>1800</v>
+      </c>
+      <c r="J66">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>997</v>
+      </c>
+      <c r="C67" t="s">
+        <v>919</v>
+      </c>
+      <c r="D67" t="s">
+        <v>912</v>
+      </c>
+      <c r="I67">
+        <v>1800</v>
+      </c>
+      <c r="J67">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>998</v>
+      </c>
+      <c r="C68" t="s">
+        <v>919</v>
+      </c>
+      <c r="D68" t="s">
+        <v>912</v>
+      </c>
+      <c r="E68" t="s">
+        <v>926</v>
+      </c>
+      <c r="I68">
+        <v>1800</v>
+      </c>
+      <c r="J68">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>999</v>
+      </c>
+      <c r="C69" t="s">
+        <v>919</v>
+      </c>
+      <c r="D69" t="s">
+        <v>912</v>
+      </c>
+      <c r="E69" t="s">
+        <v>926</v>
+      </c>
+      <c r="I69">
+        <v>1800</v>
+      </c>
+      <c r="J69">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C70" t="s">
+        <v>919</v>
+      </c>
+      <c r="D70" t="s">
+        <v>912</v>
+      </c>
+      <c r="I70">
+        <v>1800</v>
+      </c>
+      <c r="J70">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C71" t="s">
+        <v>919</v>
+      </c>
+      <c r="D71" t="s">
+        <v>912</v>
+      </c>
+      <c r="E71" t="s">
+        <v>926</v>
+      </c>
+      <c r="I71">
+        <v>1800</v>
+      </c>
+      <c r="J71">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C72" t="s">
+        <v>919</v>
+      </c>
+      <c r="D72" t="s">
+        <v>912</v>
+      </c>
+      <c r="E72" t="s">
+        <v>926</v>
+      </c>
+      <c r="I72">
+        <v>1800</v>
+      </c>
+      <c r="J72">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C73" t="s">
+        <v>919</v>
+      </c>
+      <c r="D73" t="s">
+        <v>912</v>
+      </c>
+      <c r="E73" t="s">
+        <v>926</v>
+      </c>
+      <c r="I73">
+        <v>1800</v>
+      </c>
+      <c r="J73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C74" t="s">
+        <v>919</v>
+      </c>
+      <c r="D74" t="s">
+        <v>912</v>
+      </c>
+      <c r="I74">
+        <v>1800</v>
+      </c>
+      <c r="J74">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C75" t="s">
+        <v>919</v>
+      </c>
+      <c r="D75" t="s">
+        <v>912</v>
+      </c>
+      <c r="E75" t="s">
+        <v>926</v>
+      </c>
+      <c r="I75">
+        <v>1800</v>
+      </c>
+      <c r="J75">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C76" t="s">
+        <v>919</v>
+      </c>
+      <c r="D76" t="s">
+        <v>912</v>
+      </c>
+      <c r="E76" t="s">
+        <v>922</v>
+      </c>
+      <c r="I76">
+        <v>1800</v>
+      </c>
+      <c r="J76">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C77" t="s">
+        <v>919</v>
+      </c>
+      <c r="D77" t="s">
+        <v>912</v>
+      </c>
+      <c r="E77" t="s">
+        <v>922</v>
+      </c>
+      <c r="I77">
+        <v>1800</v>
+      </c>
+      <c r="J77">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C78" t="s">
+        <v>919</v>
+      </c>
+      <c r="D78" t="s">
+        <v>912</v>
+      </c>
+      <c r="E78" t="s">
+        <v>922</v>
+      </c>
+      <c r="I78">
+        <v>1800</v>
+      </c>
+      <c r="J78">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C79" t="s">
+        <v>919</v>
+      </c>
+      <c r="D79" t="s">
+        <v>912</v>
+      </c>
+      <c r="E79" t="s">
+        <v>922</v>
+      </c>
+      <c r="I79">
+        <v>1800</v>
+      </c>
+      <c r="J79">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C80" t="s">
+        <v>919</v>
+      </c>
+      <c r="D80" t="s">
+        <v>912</v>
+      </c>
+      <c r="E80" t="s">
+        <v>922</v>
+      </c>
+      <c r="I80">
+        <v>1800</v>
+      </c>
+      <c r="J80">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C81" t="s">
+        <v>919</v>
+      </c>
+      <c r="D81" t="s">
+        <v>912</v>
+      </c>
+      <c r="E81" t="s">
+        <v>922</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G81">
+        <v>5.9748999999999999</v>
+      </c>
+      <c r="H81">
+        <v>116.0724</v>
+      </c>
+      <c r="I81">
+        <v>1800</v>
+      </c>
+      <c r="J81">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C82" t="s">
+        <v>919</v>
+      </c>
+      <c r="D82" t="s">
+        <v>912</v>
+      </c>
+      <c r="E82" t="s">
+        <v>922</v>
+      </c>
+      <c r="I82">
+        <v>1800</v>
+      </c>
+      <c r="J82">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C83" t="s">
+        <v>919</v>
+      </c>
+      <c r="D83" t="s">
+        <v>912</v>
+      </c>
+      <c r="E83" t="s">
+        <v>924</v>
+      </c>
+      <c r="I83">
+        <v>1800</v>
+      </c>
+      <c r="J83">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C84" t="s">
+        <v>919</v>
+      </c>
+      <c r="D84" t="s">
+        <v>912</v>
+      </c>
+      <c r="E84" t="s">
+        <v>922</v>
+      </c>
+      <c r="I84">
+        <v>1800</v>
+      </c>
+      <c r="J84">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C85" t="s">
+        <v>919</v>
+      </c>
+      <c r="D85" t="s">
+        <v>912</v>
+      </c>
+      <c r="E85" t="s">
+        <v>922</v>
+      </c>
+      <c r="I85">
+        <v>1800</v>
+      </c>
+      <c r="J85">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C86" t="s">
+        <v>919</v>
+      </c>
+      <c r="D86" t="s">
+        <v>912</v>
+      </c>
+      <c r="E86" t="s">
+        <v>922</v>
+      </c>
+      <c r="I86">
+        <v>1800</v>
+      </c>
+      <c r="J86">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C87" t="s">
+        <v>919</v>
+      </c>
+      <c r="D87" t="s">
+        <v>912</v>
+      </c>
+      <c r="E87" t="s">
+        <v>922</v>
+      </c>
+      <c r="I87">
+        <v>1800</v>
+      </c>
+      <c r="J87">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C88" t="s">
+        <v>919</v>
+      </c>
+      <c r="D88" t="s">
+        <v>912</v>
+      </c>
+      <c r="E88" t="s">
+        <v>922</v>
+      </c>
+      <c r="I88">
+        <v>1800</v>
+      </c>
+      <c r="J88">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C89" t="s">
+        <v>919</v>
+      </c>
+      <c r="D89" t="s">
+        <v>912</v>
+      </c>
+      <c r="E89" t="s">
+        <v>922</v>
+      </c>
+      <c r="I89">
+        <v>1800</v>
+      </c>
+      <c r="J89">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C90" t="s">
+        <v>919</v>
+      </c>
+      <c r="D90" t="s">
+        <v>912</v>
+      </c>
+      <c r="E90" t="s">
+        <v>922</v>
+      </c>
+      <c r="I90">
+        <v>1800</v>
+      </c>
+      <c r="J90">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C91" t="s">
+        <v>919</v>
+      </c>
+      <c r="D91" t="s">
+        <v>912</v>
+      </c>
+      <c r="E91" t="s">
+        <v>922</v>
+      </c>
+      <c r="I91">
+        <v>1800</v>
+      </c>
+      <c r="J91">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C92" t="s">
+        <v>919</v>
+      </c>
+      <c r="D92" t="s">
+        <v>912</v>
+      </c>
+      <c r="E92" t="s">
+        <v>922</v>
+      </c>
+      <c r="I92">
+        <v>1800</v>
+      </c>
+      <c r="J92">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C93" t="s">
+        <v>919</v>
+      </c>
+      <c r="D93" t="s">
+        <v>912</v>
+      </c>
+      <c r="E93" t="s">
+        <v>922</v>
+      </c>
+      <c r="I93">
+        <v>1800</v>
+      </c>
+      <c r="J93">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C94" t="s">
+        <v>919</v>
+      </c>
+      <c r="D94" t="s">
+        <v>912</v>
+      </c>
+      <c r="E94" t="s">
+        <v>922</v>
+      </c>
+      <c r="I94">
+        <v>1800</v>
+      </c>
+      <c r="J94">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C95" t="s">
+        <v>919</v>
+      </c>
+      <c r="D95" t="s">
+        <v>912</v>
+      </c>
+      <c r="E95" t="s">
+        <v>922</v>
+      </c>
+      <c r="I95">
+        <v>1800</v>
+      </c>
+      <c r="J95">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C96" t="s">
+        <v>919</v>
+      </c>
+      <c r="D96" t="s">
+        <v>912</v>
+      </c>
+      <c r="E96" t="s">
+        <v>922</v>
+      </c>
+      <c r="I96">
+        <v>1800</v>
+      </c>
+      <c r="J96">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C97" t="s">
+        <v>919</v>
+      </c>
+      <c r="D97" t="s">
+        <v>912</v>
+      </c>
+      <c r="E97" t="s">
+        <v>922</v>
+      </c>
+      <c r="I97">
+        <v>1800</v>
+      </c>
+      <c r="J97">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C98" t="s">
+        <v>919</v>
+      </c>
+      <c r="D98" t="s">
+        <v>912</v>
+      </c>
+      <c r="E98" t="s">
+        <v>922</v>
+      </c>
+      <c r="I98">
+        <v>1800</v>
+      </c>
+      <c r="J98">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C99" t="s">
+        <v>919</v>
+      </c>
+      <c r="D99" t="s">
+        <v>912</v>
+      </c>
+      <c r="E99" t="s">
+        <v>922</v>
+      </c>
+      <c r="I99">
+        <v>1800</v>
+      </c>
+      <c r="J99">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C100" t="s">
+        <v>919</v>
+      </c>
+      <c r="D100" t="s">
+        <v>912</v>
+      </c>
+      <c r="E100" t="s">
+        <v>922</v>
+      </c>
+      <c r="I100">
+        <v>1800</v>
+      </c>
+      <c r="J100">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C101" t="s">
+        <v>919</v>
+      </c>
+      <c r="D101" t="s">
+        <v>912</v>
+      </c>
+      <c r="E101" t="s">
+        <v>922</v>
+      </c>
+      <c r="I101">
+        <v>1800</v>
+      </c>
+      <c r="J101">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C102" t="s">
+        <v>919</v>
+      </c>
+      <c r="D102" t="s">
+        <v>912</v>
+      </c>
+      <c r="E102" t="s">
+        <v>922</v>
+      </c>
+      <c r="I102">
+        <v>1800</v>
+      </c>
+      <c r="J102">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C103" t="s">
+        <v>919</v>
+      </c>
+      <c r="D103" t="s">
+        <v>912</v>
+      </c>
+      <c r="E103" t="s">
+        <v>922</v>
+      </c>
+      <c r="I103">
+        <v>1800</v>
+      </c>
+      <c r="J103">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C104" t="s">
+        <v>919</v>
+      </c>
+      <c r="D104" t="s">
+        <v>912</v>
+      </c>
+      <c r="E104" t="s">
+        <v>922</v>
+      </c>
+      <c r="I104">
+        <v>1800</v>
+      </c>
+      <c r="J104">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C105" t="s">
+        <v>919</v>
+      </c>
+      <c r="D105" t="s">
+        <v>912</v>
+      </c>
+      <c r="E105" t="s">
+        <v>922</v>
+      </c>
+      <c r="I105">
+        <v>1800</v>
+      </c>
+      <c r="J105">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C106" t="s">
+        <v>919</v>
+      </c>
+      <c r="D106" t="s">
+        <v>912</v>
+      </c>
+      <c r="E106" t="s">
+        <v>922</v>
+      </c>
+      <c r="I106">
+        <v>1800</v>
+      </c>
+      <c r="J106">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C107" t="s">
+        <v>919</v>
+      </c>
+      <c r="D107" t="s">
+        <v>912</v>
+      </c>
+      <c r="E107" t="s">
+        <v>922</v>
+      </c>
+      <c r="I107">
+        <v>1800</v>
+      </c>
+      <c r="J107">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C108" t="s">
+        <v>919</v>
+      </c>
+      <c r="D108" t="s">
+        <v>912</v>
+      </c>
+      <c r="E108" t="s">
+        <v>922</v>
+      </c>
+      <c r="I108">
+        <v>1800</v>
+      </c>
+      <c r="J108">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C109" t="s">
+        <v>919</v>
+      </c>
+      <c r="D109" t="s">
+        <v>912</v>
+      </c>
+      <c r="E109" t="s">
+        <v>922</v>
+      </c>
+      <c r="I109">
+        <v>1800</v>
+      </c>
+      <c r="J109">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C110" t="s">
+        <v>919</v>
+      </c>
+      <c r="D110" t="s">
+        <v>912</v>
+      </c>
+      <c r="E110" t="s">
+        <v>922</v>
+      </c>
+      <c r="I110">
+        <v>1800</v>
+      </c>
+      <c r="J110">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C111" t="s">
+        <v>919</v>
+      </c>
+      <c r="D111" t="s">
+        <v>912</v>
+      </c>
+      <c r="E111" t="s">
+        <v>926</v>
+      </c>
+      <c r="I111">
+        <v>1800</v>
+      </c>
+      <c r="J111">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C112" t="s">
+        <v>919</v>
+      </c>
+      <c r="D112" t="s">
+        <v>912</v>
+      </c>
+      <c r="E112" t="s">
+        <v>926</v>
+      </c>
+      <c r="I112">
+        <v>1800</v>
+      </c>
+      <c r="J112">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C113" t="s">
+        <v>919</v>
+      </c>
+      <c r="D113" t="s">
+        <v>912</v>
+      </c>
+      <c r="E113" t="s">
+        <v>926</v>
+      </c>
+      <c r="I113">
+        <v>1800</v>
+      </c>
+      <c r="J113">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C114" t="s">
+        <v>919</v>
+      </c>
+      <c r="D114" t="s">
+        <v>912</v>
+      </c>
+      <c r="E114" t="s">
+        <v>926</v>
+      </c>
+      <c r="I114">
+        <v>1800</v>
+      </c>
+      <c r="J114">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C115" t="s">
+        <v>919</v>
+      </c>
+      <c r="D115" t="s">
+        <v>912</v>
+      </c>
+      <c r="E115" t="s">
+        <v>926</v>
+      </c>
+      <c r="I115">
+        <v>1800</v>
+      </c>
+      <c r="J115">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C116" t="s">
+        <v>919</v>
+      </c>
+      <c r="D116" t="s">
+        <v>912</v>
+      </c>
+      <c r="E116" t="s">
+        <v>926</v>
+      </c>
+      <c r="I116">
+        <v>1800</v>
+      </c>
+      <c r="J116">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C117" t="s">
+        <v>919</v>
+      </c>
+      <c r="D117" t="s">
+        <v>912</v>
+      </c>
+      <c r="I117">
+        <v>1800</v>
+      </c>
+      <c r="J117">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C118" t="s">
+        <v>919</v>
+      </c>
+      <c r="D118" t="s">
+        <v>912</v>
+      </c>
+      <c r="E118" t="s">
+        <v>926</v>
+      </c>
+      <c r="I118">
+        <v>1800</v>
+      </c>
+      <c r="J118">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C119" t="s">
+        <v>919</v>
+      </c>
+      <c r="D119" t="s">
+        <v>912</v>
+      </c>
+      <c r="E119" t="s">
+        <v>926</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G119">
+        <v>-8.2272999999999996</v>
+      </c>
+      <c r="H119">
+        <v>115.54130000000001</v>
+      </c>
+      <c r="I119">
+        <v>1800</v>
+      </c>
+      <c r="J119">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C120" t="s">
+        <v>919</v>
+      </c>
+      <c r="D120" t="s">
+        <v>912</v>
+      </c>
+      <c r="E120" t="s">
+        <v>926</v>
+      </c>
+      <c r="I120">
+        <v>1800</v>
+      </c>
+      <c r="J120">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C121" t="s">
+        <v>919</v>
+      </c>
+      <c r="D121" t="s">
+        <v>912</v>
+      </c>
+      <c r="E121" t="s">
+        <v>926</v>
+      </c>
+      <c r="I121">
+        <v>1800</v>
+      </c>
+      <c r="J121">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C122" t="s">
+        <v>919</v>
+      </c>
+      <c r="D122" t="s">
+        <v>912</v>
+      </c>
+      <c r="E122" t="s">
+        <v>926</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G122">
+        <v>-6.8977000000000004</v>
+      </c>
+      <c r="H122">
+        <v>113.7907</v>
+      </c>
+      <c r="I122">
+        <v>1800</v>
+      </c>
+      <c r="J122">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C123" t="s">
+        <v>919</v>
+      </c>
+      <c r="D123" t="s">
+        <v>912</v>
+      </c>
+      <c r="E123" t="s">
+        <v>926</v>
+      </c>
+      <c r="I123">
+        <v>1800</v>
+      </c>
+      <c r="J123">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C124" t="s">
+        <v>919</v>
+      </c>
+      <c r="D124" t="s">
+        <v>912</v>
+      </c>
+      <c r="E124" t="s">
+        <v>926</v>
+      </c>
+      <c r="I124">
+        <v>1800</v>
+      </c>
+      <c r="J124">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C125" t="s">
+        <v>919</v>
+      </c>
+      <c r="D125" t="s">
+        <v>912</v>
+      </c>
+      <c r="E125" t="s">
+        <v>926</v>
+      </c>
+      <c r="I125">
+        <v>1800</v>
+      </c>
+      <c r="J125">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C126" t="s">
+        <v>919</v>
+      </c>
+      <c r="D126" t="s">
+        <v>912</v>
+      </c>
+      <c r="E126" t="s">
+        <v>926</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G126">
+        <v>-6.6558999999999999</v>
+      </c>
+      <c r="H126">
+        <v>106.36360000000001</v>
+      </c>
+      <c r="I126">
+        <v>1800</v>
+      </c>
+      <c r="J126">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C127" t="s">
+        <v>919</v>
+      </c>
+      <c r="D127" t="s">
+        <v>912</v>
+      </c>
+      <c r="E127" t="s">
+        <v>926</v>
+      </c>
+      <c r="I127">
+        <v>1800</v>
+      </c>
+      <c r="J127">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C128" t="s">
+        <v>919</v>
+      </c>
+      <c r="D128" t="s">
+        <v>912</v>
+      </c>
+      <c r="E128" t="s">
+        <v>926</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G128">
+        <v>-7.4737</v>
+      </c>
+      <c r="H128">
+        <v>107.6688</v>
+      </c>
+      <c r="I128">
+        <v>1800</v>
+      </c>
+      <c r="J128">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C129" t="s">
+        <v>919</v>
+      </c>
+      <c r="D129" t="s">
+        <v>912</v>
+      </c>
+      <c r="E129" t="s">
+        <v>926</v>
+      </c>
+      <c r="I129">
+        <v>1800</v>
+      </c>
+      <c r="J129">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C130" t="s">
+        <v>919</v>
+      </c>
+      <c r="D130" t="s">
+        <v>912</v>
+      </c>
+      <c r="E130" t="s">
+        <v>926</v>
+      </c>
+      <c r="I130">
+        <v>1800</v>
+      </c>
+      <c r="J130">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C131" t="s">
+        <v>919</v>
+      </c>
+      <c r="D131" t="s">
+        <v>912</v>
+      </c>
+      <c r="E131" t="s">
+        <v>926</v>
+      </c>
+      <c r="I131">
+        <v>1800</v>
+      </c>
+      <c r="J131">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C132" t="s">
+        <v>919</v>
+      </c>
+      <c r="D132" t="s">
+        <v>912</v>
+      </c>
+      <c r="E132" t="s">
+        <v>926</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G132">
+        <v>-3.1940000000000003E-2</v>
+      </c>
+      <c r="H132">
+        <v>109.325</v>
+      </c>
+      <c r="I132">
+        <v>1800</v>
+      </c>
+      <c r="J132">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C133" t="s">
+        <v>919</v>
+      </c>
+      <c r="D133" t="s">
+        <v>912</v>
+      </c>
+      <c r="E133" t="s">
+        <v>926</v>
+      </c>
+      <c r="I133">
+        <v>1800</v>
+      </c>
+      <c r="J133">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C134" t="s">
+        <v>919</v>
+      </c>
+      <c r="D134" t="s">
+        <v>912</v>
+      </c>
+      <c r="E134" t="s">
+        <v>926</v>
+      </c>
+      <c r="I134">
+        <v>1800</v>
+      </c>
+      <c r="J134">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C135" t="s">
+        <v>919</v>
+      </c>
+      <c r="D135" t="s">
+        <v>912</v>
+      </c>
+      <c r="E135" t="s">
+        <v>926</v>
+      </c>
+      <c r="I135">
+        <v>1800</v>
+      </c>
+      <c r="J135">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C136" t="s">
+        <v>919</v>
+      </c>
+      <c r="D136" t="s">
+        <v>912</v>
+      </c>
+      <c r="E136" t="s">
+        <v>926</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G136">
+        <v>0.13333</v>
+      </c>
+      <c r="H136">
+        <v>110.6</v>
+      </c>
+      <c r="I136">
+        <v>1800</v>
+      </c>
+      <c r="J136">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D62B10-1310-7F4A-8F54-8DE1A26D7166}">
+  <dimension ref="A1:N95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>910</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H1" t="s">
+        <v>917</v>
+      </c>
+      <c r="I1" t="s">
+        <v>916</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F2" t="s">
+        <v>912</v>
+      </c>
+      <c r="G2">
+        <v>300008347</v>
+      </c>
+      <c r="H2">
+        <v>34.110790000000001</v>
+      </c>
+      <c r="I2">
+        <v>44.957189999999997</v>
+      </c>
+      <c r="J2">
+        <v>1450</v>
+      </c>
+      <c r="K2">
+        <v>1800</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F3" t="s">
+        <v>912</v>
+      </c>
+      <c r="G3">
+        <v>300008347</v>
+      </c>
+      <c r="H3">
+        <v>33.923092760000003</v>
+      </c>
+      <c r="I3">
+        <v>45.038236070000004</v>
+      </c>
+      <c r="J3">
+        <v>1450</v>
+      </c>
+      <c r="K3">
+        <v>1800</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F4" t="s">
+        <v>912</v>
+      </c>
+      <c r="G4">
+        <v>300008347</v>
+      </c>
+      <c r="H4">
+        <v>35.615830000000003</v>
+      </c>
+      <c r="I4">
+        <v>45.194020000000002</v>
+      </c>
+      <c r="J4">
+        <v>1450</v>
+      </c>
+      <c r="K4">
+        <v>1800</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F5" t="s">
+        <v>912</v>
+      </c>
+      <c r="G5">
+        <v>300008347</v>
+      </c>
+      <c r="H5">
+        <v>35.478769999999997</v>
+      </c>
+      <c r="I5">
+        <v>45.295699999999997</v>
+      </c>
+      <c r="J5">
+        <v>1450</v>
+      </c>
+      <c r="K5">
+        <v>1800</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F6" t="s">
+        <v>912</v>
+      </c>
+      <c r="G6">
+        <v>300008347</v>
+      </c>
+      <c r="H6">
+        <v>34.410179999999997</v>
+      </c>
+      <c r="I6">
+        <v>44.978580000000001</v>
+      </c>
+      <c r="J6">
+        <v>1450</v>
+      </c>
+      <c r="K6">
+        <v>1800</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F7" t="s">
+        <v>912</v>
+      </c>
+      <c r="G7">
+        <v>300008347</v>
+      </c>
+      <c r="H7">
+        <v>34.008769999999998</v>
+      </c>
+      <c r="I7">
+        <v>44.673479999999998</v>
+      </c>
+      <c r="J7">
+        <v>1450</v>
+      </c>
+      <c r="K7">
+        <v>1800</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F8" t="s">
+        <v>912</v>
+      </c>
+      <c r="G8">
+        <v>300008347</v>
+      </c>
+      <c r="H8">
+        <v>33.857819999999997</v>
+      </c>
+      <c r="I8">
+        <v>44.755249999999997</v>
+      </c>
+      <c r="J8">
+        <v>1450</v>
+      </c>
+      <c r="K8">
+        <v>1800</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F9" t="s">
+        <v>912</v>
+      </c>
+      <c r="G9">
+        <v>300008347</v>
+      </c>
+      <c r="H9">
+        <v>33.915930000000003</v>
+      </c>
+      <c r="I9">
+        <v>44.791469999999997</v>
+      </c>
+      <c r="J9">
+        <v>1450</v>
+      </c>
+      <c r="K9">
+        <v>1800</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F10" t="s">
+        <v>912</v>
+      </c>
+      <c r="G10">
+        <v>300008347</v>
+      </c>
+      <c r="H10">
+        <v>33.138680000000001</v>
+      </c>
+      <c r="I10">
+        <v>45.305689999999998</v>
+      </c>
+      <c r="J10">
+        <v>1450</v>
+      </c>
+      <c r="K10">
+        <v>1800</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F11" t="s">
+        <v>912</v>
+      </c>
+      <c r="G11">
+        <v>300008347</v>
+      </c>
+      <c r="H11">
+        <v>34.982810000000001</v>
+      </c>
+      <c r="I11">
+        <v>44.976750000000003</v>
+      </c>
+      <c r="J11">
+        <v>1450</v>
+      </c>
+      <c r="K11">
+        <v>1800</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F12" t="s">
+        <v>912</v>
+      </c>
+      <c r="G12">
+        <v>300008347</v>
+      </c>
+      <c r="H12">
+        <v>33.846490000000003</v>
+      </c>
+      <c r="I12">
+        <v>45.779029999999999</v>
+      </c>
+      <c r="J12">
+        <v>1450</v>
+      </c>
+      <c r="K12">
+        <v>1800</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1125</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1126</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F13" t="s">
+        <v>912</v>
+      </c>
+      <c r="G13">
+        <v>300008347</v>
+      </c>
+      <c r="H13">
+        <v>33.855960000000003</v>
+      </c>
+      <c r="I13">
+        <v>45.717440000000003</v>
+      </c>
+      <c r="J13">
+        <v>1450</v>
+      </c>
+      <c r="K13">
+        <v>1800</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1130</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1126</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F14" t="s">
+        <v>912</v>
+      </c>
+      <c r="G14">
+        <v>300008347</v>
+      </c>
+      <c r="H14">
+        <v>34.135109999999997</v>
+      </c>
+      <c r="I14">
+        <v>45.04522</v>
+      </c>
+      <c r="J14">
+        <v>1450</v>
+      </c>
+      <c r="K14">
+        <v>1800</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1134</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F15" t="s">
+        <v>912</v>
+      </c>
+      <c r="G15">
+        <v>300008347</v>
+      </c>
+      <c r="H15">
+        <v>34.272750000000002</v>
+      </c>
+      <c r="I15">
+        <v>44.97927</v>
+      </c>
+      <c r="J15">
+        <v>1450</v>
+      </c>
+      <c r="K15">
+        <v>1800</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1138</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F16" t="s">
+        <v>912</v>
+      </c>
+      <c r="G16">
+        <v>300008347</v>
+      </c>
+      <c r="H16">
+        <v>34.555619999999998</v>
+      </c>
+      <c r="I16">
+        <v>45.883890000000001</v>
+      </c>
+      <c r="J16">
+        <v>1450</v>
+      </c>
+      <c r="K16">
+        <v>1800</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1143</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1144</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F17" t="s">
+        <v>912</v>
+      </c>
+      <c r="G17">
+        <v>300008347</v>
+      </c>
+      <c r="H17">
+        <v>34.355699999999999</v>
+      </c>
+      <c r="I17">
+        <v>46.016849999999998</v>
+      </c>
+      <c r="J17">
+        <v>1450</v>
+      </c>
+      <c r="K17">
+        <v>1800</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1144</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F18" t="s">
+        <v>912</v>
+      </c>
+      <c r="G18">
+        <v>300008347</v>
+      </c>
+      <c r="H18">
+        <v>36.186010000000003</v>
+      </c>
+      <c r="I18">
+        <v>45.278190000000002</v>
+      </c>
+      <c r="J18">
+        <v>1450</v>
+      </c>
+      <c r="K18">
+        <v>1800</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1151</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1152</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F19" t="s">
+        <v>912</v>
+      </c>
+      <c r="G19">
+        <v>300008347</v>
+      </c>
+      <c r="H19">
+        <v>36.399650000000001</v>
+      </c>
+      <c r="I19">
+        <v>45.123049999999999</v>
+      </c>
+      <c r="J19">
+        <v>1450</v>
+      </c>
+      <c r="K19">
+        <v>1800</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1152</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F20" t="s">
+        <v>912</v>
+      </c>
+      <c r="G20">
+        <v>300008347</v>
+      </c>
+      <c r="H20">
+        <v>35.091740000000001</v>
+      </c>
+      <c r="I20">
+        <v>45.028869999999998</v>
+      </c>
+      <c r="J20">
+        <v>1450</v>
+      </c>
+      <c r="K20">
+        <v>1800</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1159</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1160</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F21" t="s">
+        <v>912</v>
+      </c>
+      <c r="G21">
+        <v>300008347</v>
+      </c>
+      <c r="H21">
+        <v>34.26426</v>
+      </c>
+      <c r="I21">
+        <v>44.850479999999997</v>
+      </c>
+      <c r="J21">
+        <v>1450</v>
+      </c>
+      <c r="K21">
+        <v>1800</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1165</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F22" t="s">
+        <v>912</v>
+      </c>
+      <c r="G22">
+        <v>300008347</v>
+      </c>
+      <c r="H22">
+        <v>34.25958</v>
+      </c>
+      <c r="I22">
+        <v>44.822609999999997</v>
+      </c>
+      <c r="J22">
+        <v>1450</v>
+      </c>
+      <c r="K22">
+        <v>1800</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1169</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1165</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F23" t="s">
+        <v>912</v>
+      </c>
+      <c r="G23">
+        <v>300008347</v>
+      </c>
+      <c r="H23">
+        <v>34.164140000000003</v>
+      </c>
+      <c r="I23">
+        <v>44.905999999999999</v>
+      </c>
+      <c r="J23">
+        <v>1450</v>
+      </c>
+      <c r="K23">
+        <v>1800</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1172</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1165</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F24" t="s">
+        <v>912</v>
+      </c>
+      <c r="G24">
+        <v>300008347</v>
+      </c>
+      <c r="H24">
+        <v>35.377890000000001</v>
+      </c>
+      <c r="I24">
+        <v>45.036769999999997</v>
+      </c>
+      <c r="J24">
+        <v>1450</v>
+      </c>
+      <c r="K24">
+        <v>1800</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1175</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1176</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F25" t="s">
+        <v>912</v>
+      </c>
+      <c r="G25">
+        <v>300008347</v>
+      </c>
+      <c r="H25">
+        <v>33.278660000000002</v>
+      </c>
+      <c r="I25">
+        <v>45.158160000000002</v>
+      </c>
+      <c r="J25">
+        <v>1450</v>
+      </c>
+      <c r="K25">
+        <v>1800</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1180</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1181</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F26" t="s">
+        <v>912</v>
+      </c>
+      <c r="G26">
+        <v>300008347</v>
+      </c>
+      <c r="H26">
+        <v>33.363419999999998</v>
+      </c>
+      <c r="I26">
+        <v>45.195590000000003</v>
+      </c>
+      <c r="J26">
+        <v>1450</v>
+      </c>
+      <c r="K26">
+        <v>1800</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1185</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1181</v>
+      </c>
+      <c r="N26" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F27" t="s">
+        <v>912</v>
+      </c>
+      <c r="G27">
+        <v>300008347</v>
+      </c>
+      <c r="H27">
+        <v>34.896239999999999</v>
+      </c>
+      <c r="I27">
+        <v>45.532870000000003</v>
+      </c>
+      <c r="J27">
+        <v>1450</v>
+      </c>
+      <c r="K27">
+        <v>1800</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1188</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1189</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F28" t="s">
+        <v>912</v>
+      </c>
+      <c r="G28">
+        <v>300008347</v>
+      </c>
+      <c r="H28">
+        <v>34.045310000000001</v>
+      </c>
+      <c r="I28">
+        <v>44.418080000000003</v>
+      </c>
+      <c r="J28">
+        <v>1450</v>
+      </c>
+      <c r="K28">
+        <v>1800</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F29" t="s">
+        <v>912</v>
+      </c>
+      <c r="G29">
+        <v>300008347</v>
+      </c>
+      <c r="H29">
+        <v>33.522399999999998</v>
+      </c>
+      <c r="I29">
+        <v>44.588830000000002</v>
+      </c>
+      <c r="J29">
+        <v>1450</v>
+      </c>
+      <c r="K29">
+        <v>1800</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F30" t="s">
+        <v>912</v>
+      </c>
+      <c r="G30">
+        <v>300008347</v>
+      </c>
+      <c r="H30">
+        <v>34.136620000000001</v>
+      </c>
+      <c r="I30">
+        <v>44.491379999999999</v>
+      </c>
+      <c r="J30">
+        <v>1450</v>
+      </c>
+      <c r="K30">
+        <v>1800</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1201</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F31" t="s">
+        <v>912</v>
+      </c>
+      <c r="G31">
+        <v>300008347</v>
+      </c>
+      <c r="H31">
+        <v>33.849429999999998</v>
+      </c>
+      <c r="I31">
+        <v>44.499920000000003</v>
+      </c>
+      <c r="J31">
+        <v>1450</v>
+      </c>
+      <c r="K31">
+        <v>1800</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1204</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F32" t="s">
+        <v>912</v>
+      </c>
+      <c r="G32">
+        <v>300008347</v>
+      </c>
+      <c r="H32">
+        <v>33.775880000000001</v>
+      </c>
+      <c r="I32">
+        <v>44.446849999999998</v>
+      </c>
+      <c r="J32">
+        <v>1450</v>
+      </c>
+      <c r="K32">
+        <v>1800</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F33" t="s">
+        <v>912</v>
+      </c>
+      <c r="G33">
+        <v>300008347</v>
+      </c>
+      <c r="H33">
+        <v>33.599420000000002</v>
+      </c>
+      <c r="I33">
+        <v>44.511180000000003</v>
+      </c>
+      <c r="J33">
+        <v>1450</v>
+      </c>
+      <c r="K33">
+        <v>1800</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N33" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F34" t="s">
+        <v>912</v>
+      </c>
+      <c r="G34">
+        <v>300008347</v>
+      </c>
+      <c r="H34">
+        <v>34.364690000000003</v>
+      </c>
+      <c r="I34">
+        <v>44.61356</v>
+      </c>
+      <c r="J34">
+        <v>1450</v>
+      </c>
+      <c r="K34">
+        <v>1800</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1213</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N34" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F35" t="s">
+        <v>912</v>
+      </c>
+      <c r="G35">
+        <v>300008347</v>
+      </c>
+      <c r="H35">
+        <v>33.738823099999998</v>
+      </c>
+      <c r="I35">
+        <v>44.621310360000003</v>
+      </c>
+      <c r="J35">
+        <v>1450</v>
+      </c>
+      <c r="K35">
+        <v>1800</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1216</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N35" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F36" t="s">
+        <v>912</v>
+      </c>
+      <c r="G36">
+        <v>300008347</v>
+      </c>
+      <c r="H36">
+        <v>34.317529999999998</v>
+      </c>
+      <c r="I36">
+        <v>44.592320000000001</v>
+      </c>
+      <c r="J36">
+        <v>1450</v>
+      </c>
+      <c r="K36">
+        <v>1800</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F37" t="s">
+        <v>912</v>
+      </c>
+      <c r="G37">
+        <v>300008347</v>
+      </c>
+      <c r="H37">
+        <v>33.6539</v>
+      </c>
+      <c r="I37">
+        <v>44.517299999999999</v>
+      </c>
+      <c r="J37">
+        <v>1450</v>
+      </c>
+      <c r="K37">
+        <v>1800</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1222</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F38" t="s">
+        <v>912</v>
+      </c>
+      <c r="G38">
+        <v>300008347</v>
+      </c>
+      <c r="H38">
+        <v>33.553739999999998</v>
+      </c>
+      <c r="I38">
+        <v>44.505989999999997</v>
+      </c>
+      <c r="J38">
+        <v>1450</v>
+      </c>
+      <c r="K38">
+        <v>1800</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1225</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F39" t="s">
+        <v>912</v>
+      </c>
+      <c r="G39">
+        <v>300008347</v>
+      </c>
+      <c r="H39">
+        <v>34.366520000000001</v>
+      </c>
+      <c r="I39">
+        <v>44.597189999999998</v>
+      </c>
+      <c r="J39">
+        <v>1450</v>
+      </c>
+      <c r="K39">
+        <v>1800</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1228</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N39" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F40" t="s">
+        <v>912</v>
+      </c>
+      <c r="G40">
+        <v>300008347</v>
+      </c>
+      <c r="H40">
+        <v>34.344639999999998</v>
+      </c>
+      <c r="I40">
+        <v>44.578000000000003</v>
+      </c>
+      <c r="J40">
+        <v>1450</v>
+      </c>
+      <c r="K40">
+        <v>1800</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1231</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N40" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F41" t="s">
+        <v>912</v>
+      </c>
+      <c r="G41">
+        <v>300008347</v>
+      </c>
+      <c r="H41">
+        <v>33.596110000000003</v>
+      </c>
+      <c r="I41">
+        <v>44.518790000000003</v>
+      </c>
+      <c r="J41">
+        <v>1450</v>
+      </c>
+      <c r="K41">
+        <v>1800</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1234</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N41" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F42" t="s">
+        <v>912</v>
+      </c>
+      <c r="G42">
+        <v>300008347</v>
+      </c>
+      <c r="H42">
+        <v>33.853140000000003</v>
+      </c>
+      <c r="I42">
+        <v>44.481279999999998</v>
+      </c>
+      <c r="J42">
+        <v>1450</v>
+      </c>
+      <c r="K42">
+        <v>1800</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1237</v>
+      </c>
+      <c r="M42" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N42" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F43" t="s">
+        <v>912</v>
+      </c>
+      <c r="G43">
+        <v>300008347</v>
+      </c>
+      <c r="H43">
+        <v>33.524459999999998</v>
+      </c>
+      <c r="I43">
+        <v>45.776110000000003</v>
+      </c>
+      <c r="J43">
+        <v>1450</v>
+      </c>
+      <c r="K43">
+        <v>1800</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1240</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1241</v>
+      </c>
+      <c r="N43" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F44" t="s">
+        <v>912</v>
+      </c>
+      <c r="G44">
+        <v>300008347</v>
+      </c>
+      <c r="H44">
+        <v>32.93618</v>
+      </c>
+      <c r="I44">
+        <v>45.590780000000002</v>
+      </c>
+      <c r="J44">
+        <v>1450</v>
+      </c>
+      <c r="K44">
+        <v>1800</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1245</v>
+      </c>
+      <c r="M44" t="s">
+        <v>1241</v>
+      </c>
+      <c r="N44" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F45" t="s">
+        <v>912</v>
+      </c>
+      <c r="G45">
+        <v>300008347</v>
+      </c>
+      <c r="H45">
+        <v>34.788119999999999</v>
+      </c>
+      <c r="I45">
+        <v>45.451079999999997</v>
+      </c>
+      <c r="J45">
+        <v>1450</v>
+      </c>
+      <c r="K45">
+        <v>1800</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1248</v>
+      </c>
+      <c r="M45" t="s">
+        <v>1249</v>
+      </c>
+      <c r="N45" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F46" t="s">
+        <v>912</v>
+      </c>
+      <c r="G46">
+        <v>300008347</v>
+      </c>
+      <c r="H46">
+        <v>33.663511450000001</v>
+      </c>
+      <c r="I46">
+        <v>46.000761279999999</v>
+      </c>
+      <c r="J46">
+        <v>1450</v>
+      </c>
+      <c r="K46">
+        <v>1800</v>
+      </c>
+      <c r="L46" t="s">
+        <v>1253</v>
+      </c>
+      <c r="M46" t="s">
+        <v>1254</v>
+      </c>
+      <c r="N46" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F47" t="s">
+        <v>912</v>
+      </c>
+      <c r="G47">
+        <v>300008347</v>
+      </c>
+      <c r="H47">
+        <v>33.690950000000001</v>
+      </c>
+      <c r="I47">
+        <v>46.108710000000002</v>
+      </c>
+      <c r="J47">
+        <v>1450</v>
+      </c>
+      <c r="K47">
+        <v>1800</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M47" t="s">
+        <v>1254</v>
+      </c>
+      <c r="N47" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F48" t="s">
+        <v>912</v>
+      </c>
+      <c r="G48">
+        <v>300008347</v>
+      </c>
+      <c r="H48">
+        <v>33.806019999999997</v>
+      </c>
+      <c r="I48">
+        <v>46.060180000000003</v>
+      </c>
+      <c r="J48">
+        <v>1450</v>
+      </c>
+      <c r="K48">
+        <v>1800</v>
+      </c>
+      <c r="L48" t="s">
+        <v>1261</v>
+      </c>
+      <c r="M48" t="s">
+        <v>1254</v>
+      </c>
+      <c r="N48" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F49" t="s">
+        <v>912</v>
+      </c>
+      <c r="G49">
+        <v>300008347</v>
+      </c>
+      <c r="H49">
+        <v>33.693080000000002</v>
+      </c>
+      <c r="I49">
+        <v>46.16151</v>
+      </c>
+      <c r="J49">
+        <v>1450</v>
+      </c>
+      <c r="K49">
+        <v>1800</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1264</v>
+      </c>
+      <c r="M49" t="s">
+        <v>1254</v>
+      </c>
+      <c r="N49" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F50" t="s">
+        <v>912</v>
+      </c>
+      <c r="G50">
+        <v>300008347</v>
+      </c>
+      <c r="H50">
+        <v>33.748919999999998</v>
+      </c>
+      <c r="I50">
+        <v>45.976520000000001</v>
+      </c>
+      <c r="J50">
+        <v>1450</v>
+      </c>
+      <c r="K50">
+        <v>1800</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1267</v>
+      </c>
+      <c r="M50" t="s">
+        <v>1254</v>
+      </c>
+      <c r="N50" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F51" t="s">
+        <v>912</v>
+      </c>
+      <c r="G51">
+        <v>300008347</v>
+      </c>
+      <c r="H51">
+        <v>33.765880000000003</v>
+      </c>
+      <c r="I51">
+        <v>45.994950000000003</v>
+      </c>
+      <c r="J51">
+        <v>1450</v>
+      </c>
+      <c r="K51">
+        <v>1800</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1270</v>
+      </c>
+      <c r="M51" t="s">
+        <v>1254</v>
+      </c>
+      <c r="N51" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F52" t="s">
+        <v>912</v>
+      </c>
+      <c r="G52">
+        <v>300008347</v>
+      </c>
+      <c r="H52">
+        <v>33.823639999999997</v>
+      </c>
+      <c r="I52">
+        <v>45.924030000000002</v>
+      </c>
+      <c r="J52">
+        <v>1450</v>
+      </c>
+      <c r="K52">
+        <v>1800</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1273</v>
+      </c>
+      <c r="M52" t="s">
+        <v>1254</v>
+      </c>
+      <c r="N52" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F53" t="s">
+        <v>912</v>
+      </c>
+      <c r="G53">
+        <v>300008347</v>
+      </c>
+      <c r="H53">
+        <v>34.393410000000003</v>
+      </c>
+      <c r="I53">
+        <v>45.538849999999996</v>
+      </c>
+      <c r="J53">
+        <v>1450</v>
+      </c>
+      <c r="K53">
+        <v>1800</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1276</v>
+      </c>
+      <c r="M53" t="s">
+        <v>1277</v>
+      </c>
+      <c r="N53" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F54" t="s">
+        <v>912</v>
+      </c>
+      <c r="G54">
+        <v>300008347</v>
+      </c>
+      <c r="H54">
+        <v>34.237499999999997</v>
+      </c>
+      <c r="I54">
+        <v>45.616720000000001</v>
+      </c>
+      <c r="J54">
+        <v>1450</v>
+      </c>
+      <c r="K54">
+        <v>1800</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1281</v>
+      </c>
+      <c r="M54" t="s">
+        <v>1277</v>
+      </c>
+      <c r="N54" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F55" t="s">
+        <v>912</v>
+      </c>
+      <c r="G55">
+        <v>300008347</v>
+      </c>
+      <c r="H55">
+        <v>34.383270000000003</v>
+      </c>
+      <c r="I55">
+        <v>45.650669999999998</v>
+      </c>
+      <c r="J55">
+        <v>1450</v>
+      </c>
+      <c r="K55">
+        <v>1800</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1284</v>
+      </c>
+      <c r="M55" t="s">
+        <v>1277</v>
+      </c>
+      <c r="N55" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F56" t="s">
+        <v>912</v>
+      </c>
+      <c r="G56">
+        <v>300008347</v>
+      </c>
+      <c r="H56">
+        <v>33.744340000000001</v>
+      </c>
+      <c r="I56">
+        <v>44.758249999999997</v>
+      </c>
+      <c r="J56">
+        <v>1450</v>
+      </c>
+      <c r="K56">
+        <v>1800</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M56" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N56" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F57" t="s">
+        <v>912</v>
+      </c>
+      <c r="G57">
+        <v>300008347</v>
+      </c>
+      <c r="H57">
+        <v>33.604990000000001</v>
+      </c>
+      <c r="I57">
+        <v>44.732469999999999</v>
+      </c>
+      <c r="J57">
+        <v>1450</v>
+      </c>
+      <c r="K57">
+        <v>1800</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1292</v>
+      </c>
+      <c r="M57" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N57" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F58" t="s">
+        <v>912</v>
+      </c>
+      <c r="G58">
+        <v>300008347</v>
+      </c>
+      <c r="H58">
+        <v>33.62662083</v>
+      </c>
+      <c r="I58">
+        <v>44.739800289999998</v>
+      </c>
+      <c r="J58">
+        <v>1450</v>
+      </c>
+      <c r="K58">
+        <v>1800</v>
+      </c>
+      <c r="L58" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M58" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N58" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F59" t="s">
+        <v>912</v>
+      </c>
+      <c r="G59">
+        <v>300008347</v>
+      </c>
+      <c r="H59">
+        <v>34.724530000000001</v>
+      </c>
+      <c r="I59">
+        <v>44.948830000000001</v>
+      </c>
+      <c r="J59">
+        <v>1450</v>
+      </c>
+      <c r="K59">
+        <v>1800</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1298</v>
+      </c>
+      <c r="M59" t="s">
+        <v>1299</v>
+      </c>
+      <c r="N59" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F60" t="s">
+        <v>912</v>
+      </c>
+      <c r="G60">
+        <v>300008347</v>
+      </c>
+      <c r="H60">
+        <v>34.677390000000003</v>
+      </c>
+      <c r="I60">
+        <v>45.001649999999998</v>
+      </c>
+      <c r="J60">
+        <v>1450</v>
+      </c>
+      <c r="K60">
+        <v>1800</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1303</v>
+      </c>
+      <c r="M60" t="s">
+        <v>1299</v>
+      </c>
+      <c r="N60" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F61" t="s">
+        <v>912</v>
+      </c>
+      <c r="G61">
+        <v>300008347</v>
+      </c>
+      <c r="H61">
+        <v>33.87482</v>
+      </c>
+      <c r="I61">
+        <v>45.512219999999999</v>
+      </c>
+      <c r="J61">
+        <v>1450</v>
+      </c>
+      <c r="K61">
+        <v>1800</v>
+      </c>
+      <c r="L61" t="s">
+        <v>1306</v>
+      </c>
+      <c r="M61" t="s">
+        <v>1307</v>
+      </c>
+      <c r="N61" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F62" t="s">
+        <v>912</v>
+      </c>
+      <c r="G62">
+        <v>300008347</v>
+      </c>
+      <c r="H62">
+        <v>34.226610000000001</v>
+      </c>
+      <c r="I62">
+        <v>44.866320000000002</v>
+      </c>
+      <c r="J62">
+        <v>1450</v>
+      </c>
+      <c r="K62">
+        <v>1800</v>
+      </c>
+      <c r="L62" t="s">
+        <v>1311</v>
+      </c>
+      <c r="M62" t="s">
+        <v>1312</v>
+      </c>
+      <c r="N62" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F63" t="s">
+        <v>912</v>
+      </c>
+      <c r="G63">
+        <v>300008347</v>
+      </c>
+      <c r="H63">
+        <v>34.084650000000003</v>
+      </c>
+      <c r="I63">
+        <v>44.83379</v>
+      </c>
+      <c r="J63">
+        <v>1450</v>
+      </c>
+      <c r="K63">
+        <v>1800</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1316</v>
+      </c>
+      <c r="M63" t="s">
+        <v>1312</v>
+      </c>
+      <c r="N63" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F64" t="s">
+        <v>912</v>
+      </c>
+      <c r="G64">
+        <v>300008347</v>
+      </c>
+      <c r="H64">
+        <v>33.717089999999999</v>
+      </c>
+      <c r="I64">
+        <v>45.85651</v>
+      </c>
+      <c r="J64">
+        <v>1450</v>
+      </c>
+      <c r="K64">
+        <v>1800</v>
+      </c>
+      <c r="L64" t="s">
+        <v>1319</v>
+      </c>
+      <c r="M64" t="s">
+        <v>1320</v>
+      </c>
+      <c r="N64" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F65" t="s">
+        <v>912</v>
+      </c>
+      <c r="G65">
+        <v>300008347</v>
+      </c>
+      <c r="H65">
+        <v>33.787280000000003</v>
+      </c>
+      <c r="I65">
+        <v>45.571420000000003</v>
+      </c>
+      <c r="J65">
+        <v>1450</v>
+      </c>
+      <c r="K65">
+        <v>1800</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1324</v>
+      </c>
+      <c r="M65" t="s">
+        <v>1320</v>
+      </c>
+      <c r="N65" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F66" t="s">
+        <v>912</v>
+      </c>
+      <c r="G66">
+        <v>300008347</v>
+      </c>
+      <c r="H66">
+        <v>33.830979999999997</v>
+      </c>
+      <c r="I66">
+        <v>45.642189999999999</v>
+      </c>
+      <c r="J66">
+        <v>1450</v>
+      </c>
+      <c r="K66">
+        <v>1800</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1327</v>
+      </c>
+      <c r="M66" t="s">
+        <v>1320</v>
+      </c>
+      <c r="N66" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F67" t="s">
+        <v>912</v>
+      </c>
+      <c r="G67">
+        <v>300008347</v>
+      </c>
+      <c r="H67">
+        <v>34.155430000000003</v>
+      </c>
+      <c r="I67">
+        <v>45.780070000000002</v>
+      </c>
+      <c r="J67">
+        <v>1450</v>
+      </c>
+      <c r="K67">
+        <v>1800</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1330</v>
+      </c>
+      <c r="M67" t="s">
+        <v>1331</v>
+      </c>
+      <c r="N67" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F68" t="s">
+        <v>912</v>
+      </c>
+      <c r="G68">
+        <v>300008347</v>
+      </c>
+      <c r="H68">
+        <v>34.27356339</v>
+      </c>
+      <c r="I68">
+        <v>46.034758259999997</v>
+      </c>
+      <c r="J68">
+        <v>1450</v>
+      </c>
+      <c r="K68">
+        <v>1800</v>
+      </c>
+      <c r="L68" t="s">
+        <v>1335</v>
+      </c>
+      <c r="M68" t="s">
+        <v>1331</v>
+      </c>
+      <c r="N68" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F69" t="s">
+        <v>912</v>
+      </c>
+      <c r="G69">
+        <v>300008347</v>
+      </c>
+      <c r="H69">
+        <v>34.277230000000003</v>
+      </c>
+      <c r="I69">
+        <v>45.892449999999997</v>
+      </c>
+      <c r="J69">
+        <v>1450</v>
+      </c>
+      <c r="K69">
+        <v>1800</v>
+      </c>
+      <c r="L69" t="s">
+        <v>1338</v>
+      </c>
+      <c r="M69" t="s">
+        <v>1331</v>
+      </c>
+      <c r="N69" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F70" t="s">
+        <v>912</v>
+      </c>
+      <c r="G70">
+        <v>300008347</v>
+      </c>
+      <c r="H70">
+        <v>33.527749999999997</v>
+      </c>
+      <c r="I70">
+        <v>45.690280000000001</v>
+      </c>
+      <c r="J70">
+        <v>1450</v>
+      </c>
+      <c r="K70">
+        <v>1800</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1341</v>
+      </c>
+      <c r="M70" t="s">
+        <v>1342</v>
+      </c>
+      <c r="N70" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F71" t="s">
+        <v>912</v>
+      </c>
+      <c r="G71">
+        <v>300008347</v>
+      </c>
+      <c r="H71">
+        <v>33.342300000000002</v>
+      </c>
+      <c r="I71">
+        <v>45.5747</v>
+      </c>
+      <c r="J71">
+        <v>1450</v>
+      </c>
+      <c r="K71">
+        <v>1800</v>
+      </c>
+      <c r="L71" t="s">
+        <v>1346</v>
+      </c>
+      <c r="M71" t="s">
+        <v>1342</v>
+      </c>
+      <c r="N71" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F72" t="s">
+        <v>912</v>
+      </c>
+      <c r="G72">
+        <v>300008347</v>
+      </c>
+      <c r="H72">
+        <v>35.023850000000003</v>
+      </c>
+      <c r="I72">
+        <v>45.253300000000003</v>
+      </c>
+      <c r="J72">
+        <v>1450</v>
+      </c>
+      <c r="K72">
+        <v>1800</v>
+      </c>
+      <c r="L72" t="s">
+        <v>1349</v>
+      </c>
+      <c r="M72" t="s">
+        <v>1350</v>
+      </c>
+      <c r="N72" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F73" t="s">
+        <v>912</v>
+      </c>
+      <c r="G73">
+        <v>300008347</v>
+      </c>
+      <c r="H73">
+        <v>34.835859999999997</v>
+      </c>
+      <c r="I73">
+        <v>45.053179999999998</v>
+      </c>
+      <c r="J73">
+        <v>1450</v>
+      </c>
+      <c r="K73">
+        <v>1800</v>
+      </c>
+      <c r="L73" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M73" t="s">
+        <v>1350</v>
+      </c>
+      <c r="N73" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F74" t="s">
+        <v>912</v>
+      </c>
+      <c r="G74">
+        <v>300008347</v>
+      </c>
+      <c r="H74">
+        <v>35.033839999999998</v>
+      </c>
+      <c r="I74">
+        <v>45.199179999999998</v>
+      </c>
+      <c r="J74">
+        <v>1450</v>
+      </c>
+      <c r="K74">
+        <v>1800</v>
+      </c>
+      <c r="L74" t="s">
+        <v>1357</v>
+      </c>
+      <c r="M74" t="s">
+        <v>1350</v>
+      </c>
+      <c r="N74" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F75" t="s">
+        <v>912</v>
+      </c>
+      <c r="G75">
+        <v>300008347</v>
+      </c>
+      <c r="H75">
+        <v>34.857379999999999</v>
+      </c>
+      <c r="I75">
+        <v>45.072429999999997</v>
+      </c>
+      <c r="J75">
+        <v>1450</v>
+      </c>
+      <c r="K75">
+        <v>1800</v>
+      </c>
+      <c r="L75" t="s">
+        <v>1360</v>
+      </c>
+      <c r="M75" t="s">
+        <v>1350</v>
+      </c>
+      <c r="N75" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F76" t="s">
+        <v>912</v>
+      </c>
+      <c r="G76">
+        <v>300008347</v>
+      </c>
+      <c r="H76">
+        <v>35.027079999999998</v>
+      </c>
+      <c r="I76">
+        <v>45.219079999999998</v>
+      </c>
+      <c r="J76">
+        <v>1450</v>
+      </c>
+      <c r="K76">
+        <v>1800</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1363</v>
+      </c>
+      <c r="M76" t="s">
+        <v>1350</v>
+      </c>
+      <c r="N76" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F77" t="s">
+        <v>912</v>
+      </c>
+      <c r="G77">
+        <v>300008347</v>
+      </c>
+      <c r="H77">
+        <v>34.848080000000003</v>
+      </c>
+      <c r="I77">
+        <v>44.876539999999999</v>
+      </c>
+      <c r="J77">
+        <v>1450</v>
+      </c>
+      <c r="K77">
+        <v>1800</v>
+      </c>
+      <c r="L77" t="s">
+        <v>1366</v>
+      </c>
+      <c r="M77" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N77" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F78" t="s">
+        <v>912</v>
+      </c>
+      <c r="G78">
+        <v>300008347</v>
+      </c>
+      <c r="H78">
+        <v>34.409700000000001</v>
+      </c>
+      <c r="I78">
+        <v>44.677280000000003</v>
+      </c>
+      <c r="J78">
+        <v>1450</v>
+      </c>
+      <c r="K78">
+        <v>1800</v>
+      </c>
+      <c r="L78" t="s">
+        <v>1371</v>
+      </c>
+      <c r="M78" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N78" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F79" t="s">
+        <v>912</v>
+      </c>
+      <c r="G79">
+        <v>300008347</v>
+      </c>
+      <c r="H79">
+        <v>34.721490000000003</v>
+      </c>
+      <c r="I79">
+        <v>44.869779999999999</v>
+      </c>
+      <c r="J79">
+        <v>1450</v>
+      </c>
+      <c r="K79">
+        <v>1800</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1374</v>
+      </c>
+      <c r="M79" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N79" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F80" t="s">
+        <v>912</v>
+      </c>
+      <c r="G80">
+        <v>300008347</v>
+      </c>
+      <c r="H80">
+        <v>35.10622</v>
+      </c>
+      <c r="I80">
+        <v>44.871850000000002</v>
+      </c>
+      <c r="J80">
+        <v>1450</v>
+      </c>
+      <c r="K80">
+        <v>1800</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1377</v>
+      </c>
+      <c r="M80" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N80" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F81" t="s">
+        <v>912</v>
+      </c>
+      <c r="G81">
+        <v>300008347</v>
+      </c>
+      <c r="H81">
+        <v>34.53158346</v>
+      </c>
+      <c r="I81">
+        <v>44.748386259999997</v>
+      </c>
+      <c r="J81">
+        <v>1450</v>
+      </c>
+      <c r="K81">
+        <v>1800</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1380</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N81" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F82" t="s">
+        <v>912</v>
+      </c>
+      <c r="G82">
+        <v>300008347</v>
+      </c>
+      <c r="H82">
+        <v>34.974710000000002</v>
+      </c>
+      <c r="I82">
+        <v>44.849240000000002</v>
+      </c>
+      <c r="J82">
+        <v>1450</v>
+      </c>
+      <c r="K82">
+        <v>1800</v>
+      </c>
+      <c r="L82" t="s">
+        <v>1383</v>
+      </c>
+      <c r="M82" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N82" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F83" t="s">
+        <v>912</v>
+      </c>
+      <c r="G83">
+        <v>300008347</v>
+      </c>
+      <c r="H83">
+        <v>34.366376189999997</v>
+      </c>
+      <c r="I83">
+        <v>44.721228889999999</v>
+      </c>
+      <c r="J83">
+        <v>1450</v>
+      </c>
+      <c r="K83">
+        <v>1800</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1386</v>
+      </c>
+      <c r="M83" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N83" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F84" t="s">
+        <v>912</v>
+      </c>
+      <c r="G84">
+        <v>300008347</v>
+      </c>
+      <c r="H84">
+        <v>34.953180000000003</v>
+      </c>
+      <c r="I84">
+        <v>44.941110000000002</v>
+      </c>
+      <c r="J84">
+        <v>1450</v>
+      </c>
+      <c r="K84">
+        <v>1800</v>
+      </c>
+      <c r="L84" t="s">
+        <v>1389</v>
+      </c>
+      <c r="M84" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N84" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F85" t="s">
+        <v>912</v>
+      </c>
+      <c r="G85">
+        <v>300008347</v>
+      </c>
+      <c r="H85">
+        <v>34.482190000000003</v>
+      </c>
+      <c r="I85">
+        <v>44.800730000000001</v>
+      </c>
+      <c r="J85">
+        <v>1450</v>
+      </c>
+      <c r="K85">
+        <v>1800</v>
+      </c>
+      <c r="L85" t="s">
+        <v>1392</v>
+      </c>
+      <c r="M85" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N85" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F86" t="s">
+        <v>912</v>
+      </c>
+      <c r="G86">
+        <v>300008347</v>
+      </c>
+      <c r="H86">
+        <v>34.818939999999998</v>
+      </c>
+      <c r="I86">
+        <v>44.889960000000002</v>
+      </c>
+      <c r="J86">
+        <v>1450</v>
+      </c>
+      <c r="K86">
+        <v>1800</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1395</v>
+      </c>
+      <c r="M86" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N86" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F87" t="s">
+        <v>912</v>
+      </c>
+      <c r="G87">
+        <v>300008347</v>
+      </c>
+      <c r="H87">
+        <v>34.931150000000002</v>
+      </c>
+      <c r="I87">
+        <v>45.631250000000001</v>
+      </c>
+      <c r="J87">
+        <v>1450</v>
+      </c>
+      <c r="K87">
+        <v>1800</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1398</v>
+      </c>
+      <c r="M87" t="s">
+        <v>1399</v>
+      </c>
+      <c r="N87" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F88" t="s">
+        <v>912</v>
+      </c>
+      <c r="G88">
+        <v>300008347</v>
+      </c>
+      <c r="H88">
+        <v>34.595379999999999</v>
+      </c>
+      <c r="I88">
+        <v>45.811109999999999</v>
+      </c>
+      <c r="J88">
+        <v>1450</v>
+      </c>
+      <c r="K88">
+        <v>1800</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1403</v>
+      </c>
+      <c r="M88" t="s">
+        <v>1399</v>
+      </c>
+      <c r="N88" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F89" t="s">
+        <v>912</v>
+      </c>
+      <c r="G89">
+        <v>300008347</v>
+      </c>
+      <c r="H89">
+        <v>32.979410000000001</v>
+      </c>
+      <c r="I89">
+        <v>45.478490000000001</v>
+      </c>
+      <c r="J89">
+        <v>1450</v>
+      </c>
+      <c r="K89">
+        <v>1800</v>
+      </c>
+      <c r="L89" t="s">
+        <v>1406</v>
+      </c>
+      <c r="M89" t="s">
+        <v>1407</v>
+      </c>
+      <c r="N89" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F90" t="s">
+        <v>912</v>
+      </c>
+      <c r="G90">
+        <v>300008347</v>
+      </c>
+      <c r="H90">
+        <v>32.533329999999999</v>
+      </c>
+      <c r="I90">
+        <v>45.383330000000001</v>
+      </c>
+      <c r="J90">
+        <v>1450</v>
+      </c>
+      <c r="K90">
+        <v>1800</v>
+      </c>
+      <c r="L90" t="s">
+        <v>1411</v>
+      </c>
+      <c r="M90" t="s">
+        <v>1407</v>
+      </c>
+      <c r="N90" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F91" t="s">
+        <v>912</v>
+      </c>
+      <c r="G91">
+        <v>300008347</v>
+      </c>
+      <c r="H91">
+        <v>32.97945</v>
+      </c>
+      <c r="I91">
+        <v>45.36318</v>
+      </c>
+      <c r="J91">
+        <v>1450</v>
+      </c>
+      <c r="K91">
+        <v>1800</v>
+      </c>
+      <c r="L91" t="s">
+        <v>1414</v>
+      </c>
+      <c r="M91" t="s">
+        <v>1407</v>
+      </c>
+      <c r="N91" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F92" t="s">
+        <v>912</v>
+      </c>
+      <c r="G92">
+        <v>300008347</v>
+      </c>
+      <c r="H92">
+        <v>34.135210000000001</v>
+      </c>
+      <c r="I92">
+        <v>45.28866</v>
+      </c>
+      <c r="J92">
+        <v>1450</v>
+      </c>
+      <c r="K92">
+        <v>1800</v>
+      </c>
+      <c r="L92" t="s">
+        <v>1417</v>
+      </c>
+      <c r="M92" t="s">
+        <v>1418</v>
+      </c>
+      <c r="N92" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F93" t="s">
+        <v>912</v>
+      </c>
+      <c r="G93">
+        <v>300008347</v>
+      </c>
+      <c r="H93">
+        <v>34.15802</v>
+      </c>
+      <c r="I93">
+        <v>45.358110000000003</v>
+      </c>
+      <c r="J93">
+        <v>1450</v>
+      </c>
+      <c r="K93">
+        <v>1800</v>
+      </c>
+      <c r="L93" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M93" t="s">
+        <v>1418</v>
+      </c>
+      <c r="N93" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F94" t="s">
+        <v>912</v>
+      </c>
+      <c r="G94">
+        <v>300008347</v>
+      </c>
+      <c r="H94">
+        <v>34.221339999999998</v>
+      </c>
+      <c r="I94">
+        <v>45.434730000000002</v>
+      </c>
+      <c r="J94">
+        <v>1450</v>
+      </c>
+      <c r="K94">
+        <v>1800</v>
+      </c>
+      <c r="L94" t="s">
+        <v>1425</v>
+      </c>
+      <c r="M94" t="s">
+        <v>1418</v>
+      </c>
+      <c r="N94" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F95" t="s">
+        <v>912</v>
+      </c>
+      <c r="G95">
+        <v>300008347</v>
+      </c>
+      <c r="H95">
+        <v>34.311070000000001</v>
+      </c>
+      <c r="I95">
+        <v>45.086480000000002</v>
+      </c>
+      <c r="J95">
+        <v>1450</v>
+      </c>
+      <c r="K95">
+        <v>1800</v>
+      </c>
+      <c r="L95" t="s">
+        <v>1428</v>
+      </c>
+      <c r="M95" t="s">
+        <v>1429</v>
+      </c>
+      <c r="N95" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>